--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:17 AM</t>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>Thursday, 7 August, 2025 9:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>46</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -62,7 +62,22 @@
     <t>0:2</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:22 AM</t>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>-7.6800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>Thursday, 7 August, 2025 9:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +739,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>38.32</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>24</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +817,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -77,7 +92,25 @@
     <t>0:-1</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:30 AM</t>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Thursday, 7 August, 2025 9:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -772,38 +805,104 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>38.32</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>26</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>22</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>23</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>24</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>28</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>29</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>30</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>110.31999999999999</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>33</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>34</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>35</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -822,10 +921,20 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -110,7 +110,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:58 AM</t>
+    <t>Thursday, 7 August, 2025 9:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -62,6 +62,33 @@
     <t>0:1</t>
   </si>
   <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -98,19 +125,13 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
     <t>55.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Thursday, 7 August, 2025 9:59 AM</t>
+    <t>Thursday, 7 August, 2025 10:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -790,18 +811,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -810,14 +831,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -834,7 +855,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -843,66 +864,132 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>31</v>
       </c>
-      <c t="s" r="Q10" s="12">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>110.31999999999999</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>33</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>34</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c t="s" r="Q11" s="12">
         <v>35</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>36</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>37</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>19</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>38</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>251.31999999999999</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>40</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>41</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>42</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -931,10 +1018,20 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -131,7 +131,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 10:00 AM</t>
+    <t>Thursday, 7 August, 2025 10:02 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -44,22 +44,52 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DECANCIT S.R 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
     <t>17.0000</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>EZAMOL-C 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
   </si>
   <si>
     <t xml:space="preserve">GYPSUM  SYRUP</t>
@@ -77,9 +107,6 @@
     <t>66.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -131,7 +158,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 10:02 AM</t>
+    <t>Thursday, 7 August, 2025 10:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -789,7 +816,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -798,31 +825,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -831,14 +858,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -848,14 +875,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -864,14 +891,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -881,14 +908,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -897,31 +924,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -930,66 +957,165 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>36</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
       </c>
-      <c t="s" r="Q12" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>251.31999999999999</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>40</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>41</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>42</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>46</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>29</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>319.31999999999999</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>50</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>51</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1028,10 +1154,25 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -158,7 +158,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 10:04 AM</t>
+    <t>Thursday, 7 August, 2025 10:05 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -146,6 +146,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -158,7 +170,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 10:05 AM</t>
+    <t>Thursday, 7 August, 2025 10:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1069,7 +1081,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1084,38 +1096,71 @@
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>319.31999999999999</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>49</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>50</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>29</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>51</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>345.31999999999999</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>53</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>54</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>55</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1169,10 +1214,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -170,7 +170,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 10:06 AM</t>
+    <t>Thursday, 7 August, 2025 10:09 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -71,6 +71,15 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -170,7 +179,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 10:09 AM</t>
+    <t>Thursday, 7 August, 2025 10:29 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -910,7 +919,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -920,11 +929,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -936,31 +945,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -969,20 +978,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -993,7 +1002,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1009,7 +1018,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1019,14 +1028,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1035,14 +1044,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1052,14 +1061,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1068,14 +1077,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1085,14 +1094,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1101,66 +1110,99 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>52</v>
       </c>
-      <c t="s" r="Q16" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>345.31999999999999</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>53</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>32</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>54</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>55</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c t="s" r="Q17" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>357.19999999999999</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>56</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>57</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>58</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1219,10 +1261,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DECANCIT S.R 20 F.C.TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -74,10 +86,16 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>DIMRA 20 F.C.TAB.</t>
@@ -104,9 +122,6 @@
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -137,9 +152,6 @@
     <t>46.0000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -167,6 +179,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -179,7 +200,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 10:29 AM</t>
+    <t>Thursday, 7 August, 2025 10:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -837,7 +858,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -846,14 +867,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -870,7 +891,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -886,7 +907,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -896,14 +917,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -912,14 +933,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -929,14 +950,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -945,14 +966,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -962,14 +983,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -978,31 +999,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1011,31 +1032,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1044,14 +1065,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1061,14 +1082,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1101,7 +1122,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1110,14 +1131,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1127,14 +1148,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>51</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1156,7 +1177,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1167,42 +1188,108 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>357.19999999999999</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>56</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>25</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>37</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>57</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>58</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>60</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>37</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>61</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>381.19999999999999</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>63</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>64</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>65</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1266,10 +1353,20 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -200,7 +200,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 10:33 AM</t>
+    <t>Thursday, 7 August, 2025 10:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -143,21 +143,21 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
+    <t>1:1</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -200,7 +200,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 10:39 AM</t>
+    <t>Thursday, 7 August, 2025 10:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1122,7 +1122,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1131,14 +1131,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="20" ht="24.75" customHeight="1">
       <c r="P20" s="13">
-        <v>381.19999999999999</v>
+        <v>404.19999999999999</v>
       </c>
       <c r="Q20" s="13"/>
     </row>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -110,9 +125,6 @@
     <t>EZAMOL-C 20 TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -200,7 +212,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 10:48 AM</t>
+    <t>Thursday, 7 August, 2025 10:50 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -874,7 +886,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -884,14 +896,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -900,7 +912,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -917,14 +929,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -933,14 +945,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -950,14 +962,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -973,7 +985,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -983,14 +995,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -999,14 +1011,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1016,14 +1028,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1032,20 +1044,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1056,7 +1068,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1072,24 +1084,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1098,14 +1110,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1122,7 +1134,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1131,14 +1143,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1171,7 +1183,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1181,14 +1193,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>55</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1204,24 +1216,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1230,20 +1242,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1254,42 +1266,75 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>404.19999999999999</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>63</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
         <v>64</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>41</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>65</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>438.19999999999999</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>67</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>68</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>69</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1363,10 +1408,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -113,6 +113,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -134,9 +149,6 @@
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -155,9 +167,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -212,7 +221,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 10:50 AM</t>
+    <t>Thursday, 7 August, 2025 10:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1018,21 +1027,21 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1044,14 +1053,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1061,11 +1070,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1077,31 +1086,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1110,28 +1119,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1143,14 +1152,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1167,7 +1176,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1176,14 +1185,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1193,14 +1202,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>54</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1209,14 +1218,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1226,14 +1235,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1242,20 +1251,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1282,59 +1291,92 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>438.19999999999999</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>66</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>67</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>36</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>68</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>69</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>482.75</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>70</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>71</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>72</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1413,10 +1455,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -164,6 +164,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -221,7 +230,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 10:58 AM</t>
+    <t>Thursday, 7 August, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1209,7 +1218,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1218,14 +1227,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1235,14 +1244,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1251,14 +1260,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1268,14 +1277,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1284,20 +1293,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1324,7 +1333,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1334,49 +1343,82 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>482.75</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
         <v>70</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>36</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>71</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>72</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>501.75</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>73</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>74</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>75</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1460,10 +1502,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -230,7 +230,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 10:59 AM</t>
+    <t>Thursday, 7 August, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -209,6 +218,21 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8438:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -230,7 +254,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 11:07 AM</t>
+    <t>Thursday, 7 August, 2025 11:08 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1234,7 +1258,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1251,7 +1275,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1260,14 +1284,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1277,14 +1301,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>60</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1293,14 +1317,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1310,14 +1334,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1326,20 +1350,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1372,7 +1396,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1383,42 +1407,108 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>74</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>30</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>36</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>75</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>501.75</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>73</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>74</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>75</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>77</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>78</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>36</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>79</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>549.75</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>81</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>82</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>83</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1507,10 +1597,20 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -137,6 +137,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>EZAMOL-C 20 TAB.</t>
   </si>
   <si>
@@ -254,7 +263,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 11:08 AM</t>
+    <t>Thursday, 7 August, 2025 11:09 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1126,7 +1135,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1159,13 +1168,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1176,7 +1185,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1192,13 +1201,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1225,7 +1234,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1242,7 +1251,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1258,7 +1267,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1275,7 +1284,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1291,7 +1300,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1308,7 +1317,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1317,14 +1326,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1334,14 +1343,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1350,14 +1359,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1367,14 +1376,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1383,14 +1392,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1400,14 +1409,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1416,31 +1425,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>76</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1456,7 +1465,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1466,49 +1475,82 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>549.75</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>80</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
         <v>81</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>36</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>82</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>83</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>575.49000000000001</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>84</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>85</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>86</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1607,10 +1649,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -155,6 +155,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
@@ -182,6 +194,18 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -227,6 +251,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -242,6 +275,12 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -263,7 +302,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 11:09 AM</t>
+    <t>Thursday, 7 August, 2025 11:29 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,24 +1240,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1227,28 +1266,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1260,14 +1299,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1277,14 +1316,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1293,14 +1332,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,14 +1349,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1326,14 +1365,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1343,14 +1382,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1359,14 +1398,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1376,14 +1415,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1399,7 +1438,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1409,14 +1448,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1432,7 +1471,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1442,14 +1481,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1458,20 +1497,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1498,59 +1537,191 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>83</v>
       </c>
-      <c t="s" r="Q25" s="12">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>84</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>85</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>88</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>30</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>36</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>85</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>575.49000000000001</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>84</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
-        <v>85</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
-        <v>86</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>90</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>30</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>36</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>91</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>93</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>94</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>36</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>95</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>642.44000000000005</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>97</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>98</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>99</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1654,10 +1825,30 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>MINOPHYLLINE-N 2.5% 5 I.V. AMP</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>NASSAR 12*8 F.C. TAB.</t>
   </si>
   <si>
@@ -302,7 +311,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 11:29 AM</t>
+    <t>Thursday, 7 August, 2025 11:34 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1372,7 +1381,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1382,11 +1391,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1398,14 +1407,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1422,7 +1431,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1438,7 +1447,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1455,7 +1464,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1464,14 +1473,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1481,14 +1490,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>74</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>75</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1497,14 +1506,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1514,14 +1523,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1530,14 +1539,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1554,7 +1563,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1570,7 +1579,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1580,14 +1589,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1596,31 +1605,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1629,7 +1638,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1646,7 +1655,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1669,7 +1678,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1679,49 +1688,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>642.44000000000005</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>96</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>97</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>36</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>98</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>99</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>650.44000000000005</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>100</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>101</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>102</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1845,10 +1887,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -311,7 +311,13 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 11:34 AM</t>
+    <t>مناديل سولو سحب صغيره</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>Thursday, 7 August, 2025 12:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1732,38 +1738,71 @@
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>650.44000000000005</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>100</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>16</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>36</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>101</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>685.44000000000005</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
         <v>102</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>103</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>104</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1892,10 +1931,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -236,6 +236,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -263,12 +275,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -317,7 +323,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 12:10 PM</t>
+    <t>Thursday, 7 August, 2025 12:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1519,7 +1525,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1529,14 +1535,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1552,7 +1558,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1562,14 +1568,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1585,7 +1591,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1595,14 +1601,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1611,14 +1617,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1628,14 +1634,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1644,31 +1650,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1694,11 +1700,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1710,14 +1716,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1727,11 +1733,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1743,14 +1749,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1760,49 +1766,82 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>685.44000000000005</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>102</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>16</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>36</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>103</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>702.26999999999998</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
         <v>104</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>105</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>106</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1936,10 +1975,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DECANCIT S.R 20 F.C.TAB</t>
   </si>
   <si>
@@ -323,7 +335,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 12:11 PM</t>
+    <t>Thursday, 7 August, 2025 12:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1030,7 +1042,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1040,14 +1052,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1056,14 +1068,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1113,7 +1125,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1122,31 +1134,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1155,28 +1167,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1188,14 +1200,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1205,11 +1217,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1221,14 +1233,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1238,11 +1250,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1254,14 +1266,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1278,7 +1290,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1294,24 +1306,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1320,28 +1332,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1353,14 +1365,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1370,14 +1382,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1386,14 +1398,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1403,11 +1415,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1419,14 +1431,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1459,7 +1471,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1469,14 +1481,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1485,14 +1497,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1502,14 +1514,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1525,7 +1537,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1535,14 +1547,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>78</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1558,7 +1570,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1568,14 +1580,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1591,7 +1603,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1601,14 +1613,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1624,7 +1636,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1634,14 +1646,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1650,14 +1662,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1667,14 +1679,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1683,31 +1695,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1716,28 +1728,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1749,20 +1761,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1789,59 +1801,92 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>702.26999999999998</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>104</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>105</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>106</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>16</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>40</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>107</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>733.26999999999998</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>108</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>109</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>110</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1980,10 +2025,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -335,7 +335,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 12:12 PM</t>
+    <t>Thursday, 7 August, 2025 12:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t xml:space="preserve">  1+1 INFINITY CARE 50+ SPF LOTION</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>264.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -59,9 +77,6 @@
     <t>34.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -113,9 +128,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -131,9 +143,6 @@
     <t>1:1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -272,6 +281,12 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -335,7 +350,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 12:14 PM</t>
+    <t>Thursday, 7 August, 2025 12:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1015,18 +1030,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1048,7 +1063,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1059,7 +1074,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1068,31 +1083,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1101,31 +1116,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1134,31 +1149,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1174,24 +1189,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1200,14 +1215,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1224,7 +1239,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1240,13 +1255,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1257,7 +1272,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1273,13 +1288,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1290,7 +1305,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1306,24 +1321,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1332,20 +1347,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1356,7 +1371,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1372,7 +1387,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1405,13 +1420,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1422,7 +1437,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1438,13 +1453,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1455,7 +1470,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1471,24 +1486,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1497,20 +1512,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1521,7 +1536,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1537,13 +1552,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1554,7 +1569,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1563,31 +1578,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1596,20 +1611,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1620,7 +1635,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1629,31 +1644,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1662,31 +1677,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1708,7 +1723,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1719,7 +1734,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1728,31 +1743,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1761,31 +1776,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>101</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1801,21 +1816,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1827,66 +1842,132 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>733.26999999999998</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>108</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>109</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>110</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>111</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>16</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>13</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>112</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1082.27</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>113</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>114</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>115</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2030,10 +2111,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -350,7 +350,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 12:17 PM</t>
+    <t>Thursday, 7 August, 2025 12:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>9.1200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -245,6 +257,12 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -260,9 +278,6 @@
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -350,7 +365,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 12:20 PM</t>
+    <t>Thursday, 7 August, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1107,7 +1122,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1123,7 +1138,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1133,14 +1148,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1149,14 +1164,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1189,7 +1204,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1199,14 +1214,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1222,24 +1237,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1255,21 +1270,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>26</v>
@@ -1281,14 +1296,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1298,11 +1313,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
@@ -1314,14 +1329,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1331,11 +1346,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>26</v>
@@ -1347,14 +1362,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1371,7 +1386,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1387,24 +1402,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1413,28 +1428,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1446,14 +1461,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1463,14 +1478,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1479,14 +1494,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1496,11 +1511,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>26</v>
@@ -1512,14 +1527,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1552,7 +1567,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1562,14 +1577,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1578,14 +1593,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1595,14 +1610,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1628,14 +1643,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1644,14 +1659,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1661,14 +1676,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1677,14 +1692,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1694,14 +1709,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1710,14 +1725,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1727,14 +1742,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1743,14 +1758,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1760,14 +1775,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1800,7 +1815,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1809,31 +1824,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1842,31 +1857,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1882,7 +1897,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1892,11 +1907,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1908,14 +1923,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1925,49 +1940,115 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1082.27</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>112</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
         <v>113</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>13</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>114</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>116</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>16</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>13</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>117</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1118.98</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>118</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>119</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>120</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2121,10 +2202,20 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -296,6 +296,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>UNITREXATE 50 MG 5 I.M. I.V. VIALS</t>
+  </si>
+  <si>
+    <t>385.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
     <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
   </si>
   <si>
@@ -365,7 +374,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 12:34 PM</t>
+    <t>Thursday, 7 August, 2025 12:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1765,7 +1774,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1775,14 +1784,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1791,14 +1800,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1808,11 +1817,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1824,14 +1833,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1841,14 +1850,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1857,14 +1866,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1874,14 +1883,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,31 +1899,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1923,7 +1932,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1940,7 +1949,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -1963,7 +1972,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1973,11 +1982,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1989,14 +1998,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2010,45 +2019,78 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1118.98</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>118</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>119</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>16</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>13</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>120</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1195.98</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>121</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>122</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>123</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2212,10 +2254,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -341,6 +341,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>زيت حرير 100مل</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -374,7 +383,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 12:48 PM</t>
+    <t>Thursday, 7 August, 2025 12:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1939,7 +1948,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1949,11 +1958,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1965,7 +1974,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1982,7 +1991,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2005,7 +2014,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2015,11 +2024,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2031,14 +2040,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2052,45 +2061,78 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1195.98</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>121</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>122</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>16</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>13</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>123</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1245.98</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>124</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>125</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>126</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2259,10 +2301,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -383,7 +383,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 12:50 PM</t>
+    <t>Thursday, 7 August, 2025 1:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -341,6 +341,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>زيت حرير 100مل</t>
   </si>
   <si>
@@ -383,7 +392,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 1:00 PM</t>
+    <t>Thursday, 7 August, 2025 1:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1948,7 +1957,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1965,7 +1974,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1981,7 +1990,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1991,11 +2000,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2007,7 +2016,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2024,7 +2033,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2047,7 +2056,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2057,11 +2066,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2073,14 +2082,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2094,45 +2103,78 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1245.98</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>124</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>125</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>16</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>13</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>126</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1275.98</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>127</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>128</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>129</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2306,10 +2348,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -392,7 +392,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 1:01 PM</t>
+    <t>Thursday, 7 August, 2025 1:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>MINOPHYLLINE-N 2.5% 5 I.V. AMP</t>
   </si>
   <si>
@@ -392,7 +401,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 1:08 PM</t>
+    <t>Thursday, 7 August, 2025 1:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1561,7 +1570,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1578,7 +1587,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1594,7 +1603,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1604,11 +1613,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>26</v>
@@ -1620,14 +1629,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1644,7 +1653,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1660,7 +1669,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1670,14 +1679,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1686,14 +1695,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1703,14 +1712,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1719,14 +1728,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1736,14 +1745,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1759,7 +1768,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1776,7 +1785,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1785,14 +1794,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1802,14 +1811,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>97</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1825,7 +1834,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1835,14 +1844,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1851,14 +1860,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1868,11 +1877,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1901,14 +1910,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1934,14 +1943,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1950,31 +1959,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1990,7 +1999,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2007,7 +2016,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2023,7 +2032,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2033,11 +2042,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2049,7 +2058,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2066,7 +2075,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2089,7 +2098,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2099,11 +2108,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2115,14 +2124,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2136,45 +2145,78 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1275.98</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>127</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>128</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>16</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>13</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>129</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1395.98</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>130</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>131</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>132</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2353,10 +2395,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
@@ -401,7 +410,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 1:15 PM</t>
+    <t>Thursday, 7 August, 2025 1:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1471,13 +1480,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1504,13 +1513,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1537,7 +1546,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1554,7 +1563,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1570,7 +1579,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1587,7 +1596,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1603,7 +1612,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1620,7 +1629,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1636,7 +1645,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1646,11 +1655,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>26</v>
@@ -1662,14 +1671,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1686,7 +1695,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1702,7 +1711,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1712,14 +1721,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1728,14 +1737,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1745,14 +1754,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1761,14 +1770,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1778,14 +1787,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1801,7 +1810,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1818,7 +1827,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1827,14 +1836,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1867,7 +1876,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1877,14 +1886,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1893,14 +1902,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1910,11 +1919,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1926,14 +1935,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1943,14 +1952,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1959,14 +1968,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1976,14 +1985,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1992,31 +2001,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>115</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2032,7 +2041,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2049,7 +2058,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2065,7 +2074,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2075,11 +2084,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2091,7 +2100,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2108,7 +2117,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2131,7 +2140,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2141,11 +2150,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2157,14 +2166,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2178,45 +2187,78 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1395.98</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>130</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>131</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>16</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>13</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>132</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1474.98</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>133</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>134</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>135</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2400,10 +2442,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -275,6 +275,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -305,9 +314,6 @@
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>-7.6800</t>
   </si>
   <si>
@@ -410,7 +416,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 1:16 PM</t>
+    <t>Thursday, 7 August, 2025 1:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1744,7 +1750,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1754,14 +1760,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1770,14 +1776,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1787,14 +1793,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1803,14 +1809,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1820,14 +1826,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1843,7 +1849,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1860,7 +1866,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1869,14 +1875,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1886,14 +1892,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1902,14 +1908,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1919,14 +1925,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1942,7 +1948,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1952,11 +1958,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1968,14 +1974,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1985,14 +1991,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2001,14 +2007,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2018,14 +2024,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2034,31 +2040,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2067,14 +2073,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2084,14 +2090,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2100,14 +2106,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2117,7 +2123,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2150,11 +2156,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2166,14 +2172,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2183,11 +2189,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2199,14 +2205,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2216,49 +2222,82 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1474.98</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>133</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>16</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>13</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>134</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1498.98</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
         <v>135</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>136</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>137</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2447,10 +2486,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -92,6 +92,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -173,9 +188,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -191,9 +203,6 @@
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -299,9 +308,6 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -320,6 +326,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
     <t>UNITREXATE 50 MG 5 I.M. I.V. VIALS</t>
   </si>
   <si>
@@ -416,7 +431,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 1:19 PM</t>
+    <t>Thursday, 7 August, 2025 1:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1173,7 +1188,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1182,14 +1197,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1199,14 +1214,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1215,14 +1230,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1232,14 +1247,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1248,14 +1263,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1265,11 +1280,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>26</v>
@@ -1281,14 +1296,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1298,14 +1313,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1314,20 +1329,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1338,7 +1353,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1347,28 +1362,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
@@ -1380,14 +1395,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1397,11 +1412,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>26</v>
@@ -1413,14 +1428,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1430,11 +1445,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>26</v>
@@ -1446,14 +1461,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1470,7 +1485,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1486,7 +1501,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1503,7 +1518,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1519,13 +1534,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1552,13 +1567,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1585,7 +1600,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1602,7 +1617,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1618,7 +1633,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1635,7 +1650,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1651,7 +1666,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1668,7 +1683,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1684,7 +1699,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1694,11 +1709,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>26</v>
@@ -1710,14 +1725,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1734,7 +1749,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1750,7 +1765,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1767,7 +1782,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1783,7 +1798,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1793,14 +1808,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1809,14 +1824,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1826,14 +1841,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1842,14 +1857,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1859,14 +1874,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1875,14 +1890,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1892,14 +1907,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1908,14 +1923,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1925,14 +1940,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1941,14 +1956,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1958,7 +1973,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -1981,7 +1996,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1991,14 +2006,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2007,14 +2022,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2024,14 +2039,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2064,7 +2079,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2073,31 +2088,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2106,31 +2121,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2139,7 +2154,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2156,14 +2171,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2179,7 +2194,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2212,7 +2227,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2222,11 +2237,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2238,14 +2253,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2255,49 +2270,115 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1498.98</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>134</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
         <v>135</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>13</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>136</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>138</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>16</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>13</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>139</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1617.8800000000001</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>140</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>141</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>142</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2491,10 +2572,20 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -245,6 +245,24 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MALINDA  CREAM</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>290.0000</t>
+  </si>
+  <si>
+    <t>MALINDA SKIN CLEANSER GEL 200ML</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
     <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
   </si>
   <si>
@@ -431,7 +449,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 1:30 PM</t>
+    <t>Thursday, 7 August, 2025 1:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1672,7 +1690,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1699,7 +1717,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1716,7 +1734,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1732,7 +1750,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1742,14 +1760,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1758,14 +1776,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1775,14 +1793,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1791,14 +1809,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1831,7 +1849,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1841,14 +1859,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1857,14 +1875,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1874,14 +1892,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1890,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1907,14 +1925,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1930,7 +1948,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1940,14 +1958,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1963,7 +1981,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1980,7 +1998,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1996,7 +2014,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2006,14 +2024,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>110</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2029,7 +2047,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2039,11 +2057,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2055,14 +2073,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2079,7 +2097,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2095,7 +2113,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2105,14 +2123,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2121,14 +2139,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2138,14 +2156,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2161,24 +2179,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2187,31 +2205,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2237,14 +2255,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2253,14 +2271,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2270,11 +2288,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2286,14 +2304,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2303,11 +2321,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2319,14 +2337,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2336,49 +2354,115 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1617.8800000000001</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>140</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
         <v>141</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>13</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>142</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>144</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>16</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>13</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>145</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2207.8800000000001</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>146</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>147</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>148</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2582,10 +2666,20 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>BABY NADIF NASAL SPRAY 50 ML</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>218.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -209,15 +218,6 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
@@ -449,7 +449,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 1:31 PM</t>
+    <t>Thursday, 7 August, 2025 2:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1255,7 +1255,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1265,11 +1265,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1281,14 +1281,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1305,7 +1305,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1321,7 +1321,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1331,11 +1331,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>26</v>
@@ -1347,14 +1347,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1371,7 +1371,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1380,31 +1380,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1413,20 +1413,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1453,7 +1453,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1463,11 +1463,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>26</v>
@@ -1479,14 +1479,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1519,7 +1519,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1536,7 +1536,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1552,7 +1552,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1569,7 +1569,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1651,7 +1651,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1783,7 +1783,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1932,7 +1932,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1948,7 +1948,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="48" ht="24.75" customHeight="1">
       <c r="P48" s="13">
-        <v>2207.8800000000001</v>
+        <v>2346.8800000000001</v>
       </c>
       <c r="Q48" s="13"/>
     </row>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 2:12 PM</t>
+    <t>Thursday, 7 August, 2025 2:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 2:13 PM</t>
+    <t>Thursday, 7 August, 2025 2:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -281,6 +281,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>NASSAR 12*8 F.C. TAB.</t>
   </si>
   <si>
@@ -449,7 +458,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 2:29 PM</t>
+    <t>Thursday, 7 August, 2025 2:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1816,7 +1825,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1826,14 +1835,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1842,14 +1851,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1866,7 +1875,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1882,7 +1891,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1899,7 +1908,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1915,7 +1924,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1925,14 +1934,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1941,14 +1950,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1958,14 +1967,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1981,7 +1990,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1998,7 +2007,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2014,7 +2023,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2047,7 +2056,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2057,14 +2066,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2097,7 +2106,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2113,7 +2122,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2123,14 +2132,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2156,11 +2165,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>128</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2238,31 +2247,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2278,7 +2287,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2295,7 +2304,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2311,7 +2320,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2321,11 +2330,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2337,7 +2346,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2354,7 +2363,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2377,7 +2386,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2387,11 +2396,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2424,45 +2433,78 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2346.8800000000001</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>146</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>147</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>16</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>13</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>148</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2369.8800000000001</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>149</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>150</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>151</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2676,10 +2718,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
@@ -458,7 +467,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 2:30 PM</t>
+    <t>Thursday, 7 August, 2025 2:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1600,7 +1609,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1627,13 +1636,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1660,7 +1669,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1677,7 +1686,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1693,13 +1702,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1710,7 +1719,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1732,7 +1741,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1792,7 +1801,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1809,7 +1818,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1825,7 +1834,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1842,7 +1851,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1858,7 +1867,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1868,14 +1877,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1908,7 +1917,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1924,7 +1933,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1941,7 +1950,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1967,14 +1976,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2023,7 +2032,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2040,7 +2049,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2056,7 +2065,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2089,7 +2098,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2099,14 +2108,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2139,7 +2148,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2198,11 +2207,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2214,14 +2223,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2231,14 +2240,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2264,14 +2273,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2280,31 +2289,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>134</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2320,7 +2329,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2337,7 +2346,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2353,7 +2362,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2363,11 +2372,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2379,7 +2388,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2396,7 +2405,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2419,7 +2428,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2429,11 +2438,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2466,45 +2475,78 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>150</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>16</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>13</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>151</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>60</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2369.8800000000001</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>149</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>150</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>151</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2401.8800000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>152</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>153</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>154</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2723,10 +2765,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -425,6 +425,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>61:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>زيت حرير 100مل</t>
   </si>
   <si>
@@ -434,6 +446,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">زيت شعر املا 180 مل </t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -467,7 +485,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 2:55 PM</t>
+    <t>Thursday, 7 August, 2025 3:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2362,7 +2380,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2372,11 +2390,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2388,14 +2406,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2405,11 +2423,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2421,14 +2439,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2438,11 +2456,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2454,14 +2472,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2471,11 +2489,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2487,14 +2505,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2504,49 +2522,115 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>152</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>153</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>13</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>154</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>156</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>16</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>13</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>157</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>60</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2401.8800000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>152</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>153</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>154</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2506.8800000000001</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>158</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>159</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>160</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2770,10 +2854,20 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -362,6 +362,12 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>RX MASSAGE GEL 50 GM</t>
   </si>
   <si>
@@ -485,7 +491,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 3:08 PM</t>
+    <t>Thursday, 7 August, 2025 3:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2149,7 +2155,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2159,14 +2165,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2175,7 +2181,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2192,14 +2198,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2208,14 +2214,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2225,14 +2231,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2248,7 +2254,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2258,11 +2264,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2274,14 +2280,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2291,14 +2297,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2307,14 +2313,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2324,14 +2330,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2340,31 +2346,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2373,14 +2379,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2390,14 +2396,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2406,14 +2412,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2423,11 +2429,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2439,14 +2445,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2456,11 +2462,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2479,7 +2485,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2489,11 +2495,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2522,11 +2528,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2538,14 +2544,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2555,11 +2561,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2571,14 +2577,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2588,49 +2594,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>158</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>16</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>13</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>159</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>60</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2506.8800000000001</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>158</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>159</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2534.5999999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
         <v>160</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>161</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>162</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2864,10 +2903,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>27.7200</t>
+    <t>6.7200</t>
   </si>
   <si>
     <t>RX MASSAGE GEL 50 GM</t>
@@ -491,7 +491,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 3:09 PM</t>
+    <t>Thursday, 7 August, 2025 3:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2155,7 +2155,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2172,7 +2172,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2639,7 +2639,7 @@
     </row>
     <row r="53" ht="24.75" customHeight="1">
       <c r="P53" s="13">
-        <v>2534.5999999999999</v>
+        <v>2513.5999999999999</v>
       </c>
       <c r="Q53" s="13"/>
     </row>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -491,7 +491,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 3:12 PM</t>
+    <t>Thursday, 7 August, 2025 3:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -491,7 +491,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 3:21 PM</t>
+    <t>Thursday, 7 August, 2025 3:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -329,6 +329,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -491,7 +500,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 3:22 PM</t>
+    <t>Thursday, 7 August, 2025 3:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2023,7 +2032,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2033,11 +2042,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>53</v>
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2089,7 +2098,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2106,7 +2115,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2122,7 +2131,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2132,14 +2141,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2238,7 +2247,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2254,7 +2263,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2264,14 +2273,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2280,14 +2289,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2297,11 +2306,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2346,14 +2355,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2363,14 +2372,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2379,31 +2388,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>139</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2419,7 +2428,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2429,14 +2438,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2485,7 +2494,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2495,11 +2504,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2528,11 +2537,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2544,7 +2553,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2561,7 +2570,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2584,7 +2593,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2594,11 +2603,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2631,45 +2640,78 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>161</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>16</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>13</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>162</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>60</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2513.5999999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>160</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>161</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>162</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2577.5999999999999</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>163</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>164</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>165</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2908,10 +2950,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -500,7 +500,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 3:24 PM</t>
+    <t>Thursday, 7 August, 2025 3:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -416,6 +416,9 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -470,9 +473,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 3:45 PM</t>
+    <t>Thursday, 7 August, 2025 3:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2362,7 +2362,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2376,10 +2376,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2388,14 +2388,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2405,14 +2405,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2438,11 +2438,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2454,14 +2454,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2471,11 +2471,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2504,11 +2504,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2520,14 +2520,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2570,14 +2570,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2681,7 +2681,7 @@
     </row>
     <row r="54" ht="25.5" customHeight="1">
       <c r="P54" s="13">
-        <v>2577.5999999999999</v>
+        <v>2596.4299999999998</v>
       </c>
       <c r="Q54" s="13"/>
     </row>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -62,15 +62,27 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -140,6 +152,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DECANCIT S.R 20 F.C.TAB</t>
   </si>
   <si>
@@ -500,7 +524,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 3:46 PM</t>
+    <t>Thursday, 7 August, 2025 4:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1224,7 +1248,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1233,14 +1257,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1250,14 +1274,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1266,14 +1290,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1283,14 +1307,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1306,7 +1330,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1316,14 +1340,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1332,14 +1356,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1372,7 +1396,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1382,14 +1406,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1398,14 +1422,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1415,14 +1439,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1431,14 +1455,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1448,14 +1472,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1477,7 +1501,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1488,7 +1512,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1504,7 +1528,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1521,7 +1545,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1530,31 +1554,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1563,14 +1587,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1580,14 +1604,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1596,14 +1620,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1613,14 +1637,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1629,14 +1653,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1646,14 +1670,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1662,31 +1686,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1695,14 +1719,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1712,11 +1736,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1728,31 +1752,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1761,28 +1785,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1794,14 +1818,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1811,14 +1835,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1827,7 +1851,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1840,15 +1864,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1860,14 +1884,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1877,14 +1901,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1893,14 +1917,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1910,11 +1934,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1926,14 +1950,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1943,14 +1967,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1959,7 +1983,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1976,11 +2000,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1992,14 +2016,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2009,14 +2033,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2025,14 +2049,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2042,14 +2066,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2058,14 +2082,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2075,14 +2099,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2091,14 +2115,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2108,14 +2132,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2124,14 +2148,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2141,14 +2165,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2157,14 +2181,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2174,14 +2198,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2190,14 +2214,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2207,14 +2231,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2223,14 +2247,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2240,14 +2264,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2256,14 +2280,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2273,14 +2297,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2289,14 +2313,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2306,11 +2330,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2322,14 +2346,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2339,14 +2363,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2355,14 +2379,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2372,14 +2396,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2388,14 +2412,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2405,14 +2429,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2421,31 +2445,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2467,7 +2491,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2478,7 +2502,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2504,14 +2528,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2520,14 +2544,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2537,11 +2561,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2553,14 +2577,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2570,14 +2594,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2586,14 +2610,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2603,11 +2627,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2619,14 +2643,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2636,14 +2660,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2652,14 +2676,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2669,49 +2693,115 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2596.4299999999998</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>163</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>164</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>165</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>166</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>13</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>167</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>169</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>16</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>13</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>170</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2644.4299999999998</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>171</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>172</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>173</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2955,10 +3045,20 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -524,7 +524,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 4:32 PM</t>
+    <t>Thursday, 7 August, 2025 5:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -242,6 +242,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
   </si>
   <si>
@@ -524,7 +533,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 5:06 PM</t>
+    <t>Thursday, 7 August, 2025 5:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1726,7 +1735,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1765,7 +1774,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1792,13 +1801,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1825,7 +1834,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1842,7 +1851,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1858,13 +1867,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1875,7 +1884,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1897,7 +1906,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1957,7 +1966,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1974,7 +1983,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1990,7 +1999,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2007,7 +2016,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2023,7 +2032,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2073,7 +2082,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2089,7 +2098,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2106,7 +2115,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2122,7 +2131,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2139,7 +2148,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2165,11 +2174,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>61</v>
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2221,7 +2230,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2238,7 +2247,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2254,7 +2263,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2264,14 +2273,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2287,7 +2296,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2297,14 +2306,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2370,7 +2379,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2386,7 +2395,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2396,14 +2405,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2429,11 +2438,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2478,14 +2487,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>148</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2511,31 +2520,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2551,7 +2560,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2577,14 +2586,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2617,7 +2626,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2627,11 +2636,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2660,14 +2669,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2676,7 +2685,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2716,7 +2725,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2726,11 +2735,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2763,45 +2772,78 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>172</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>16</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>13</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>173</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>68</v>
       </c>
-      <c t="s" r="Q55" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2644.4299999999998</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>171</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>172</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>173</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2720.4299999999998</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>174</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>175</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>176</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3055,10 +3097,15 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -269,6 +269,12 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -305,6 +311,12 @@
     <t>300.0000</t>
   </si>
   <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
     <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
   </si>
   <si>
@@ -419,6 +431,24 @@
     <t>79.9000</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>UNITREXATE 50 MG 5 I.M. I.V. VIALS</t>
   </si>
   <si>
@@ -533,7 +563,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 5:23 PM</t>
+    <t>Thursday, 7 August, 2025 5:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1834,7 +1864,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1848,10 +1878,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1860,14 +1890,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1877,14 +1907,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1893,31 +1923,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1926,7 +1956,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1939,15 +1969,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1959,7 +1989,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1976,11 +2006,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1992,14 +2022,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2009,11 +2039,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -2025,14 +2055,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2042,11 +2072,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2058,14 +2088,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2075,11 +2105,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>30</v>
@@ -2091,7 +2121,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2108,11 +2138,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2124,14 +2154,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2141,11 +2171,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>30</v>
@@ -2157,14 +2187,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2174,14 +2204,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2190,14 +2220,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2207,14 +2237,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2223,14 +2253,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2240,14 +2270,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2256,14 +2286,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2273,14 +2303,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2289,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2306,14 +2336,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>130</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2322,14 +2352,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2339,11 +2369,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2355,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2372,14 +2402,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2388,14 +2418,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2405,11 +2435,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2421,14 +2451,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2438,11 +2468,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2454,14 +2484,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2471,11 +2501,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2487,14 +2517,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2504,14 +2534,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2520,14 +2550,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2537,14 +2567,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>151</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2553,7 +2583,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2566,18 +2596,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2586,28 +2616,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2619,31 +2649,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2652,31 +2682,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2685,7 +2715,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2702,14 +2732,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>151</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2725,7 +2755,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2735,11 +2765,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2751,14 +2781,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2791,7 +2821,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2801,49 +2831,181 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>174</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>12</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>13</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>159</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>175</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>12</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>13</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>176</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>178</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>179</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>13</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>180</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>182</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>16</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>13</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>183</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>68</v>
       </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2720.4299999999998</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>174</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>175</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>176</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2840.77</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>184</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>185</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>186</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3102,10 +3264,30 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -119,6 +119,21 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>28.6000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -194,9 +209,6 @@
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DICLAC 75 ID 30 TAB</t>
   </si>
   <si>
@@ -233,6 +245,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -494,9 +518,6 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>ايزي سويت قطعه</t>
   </si>
   <si>
@@ -542,7 +563,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
@@ -563,7 +584,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 5:27 PM</t>
+    <t>Thursday, 7 August, 2025 5:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1386,7 +1407,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1395,14 +1416,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1412,14 +1433,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1428,14 +1449,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1445,11 +1466,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1461,14 +1482,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1478,11 +1499,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1494,14 +1515,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1511,14 +1532,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1527,14 +1548,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1544,11 +1565,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>30</v>
@@ -1560,14 +1581,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1577,14 +1598,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1593,20 +1614,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1617,7 +1638,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1633,21 +1654,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>30</v>
@@ -1659,14 +1680,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1676,11 +1697,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>30</v>
@@ -1692,14 +1713,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1709,11 +1730,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>30</v>
@@ -1725,14 +1746,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1742,14 +1763,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1758,14 +1779,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1775,11 +1796,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1791,14 +1812,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1808,14 +1829,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1824,28 +1845,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1857,7 +1878,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1874,14 +1895,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1890,28 +1911,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1923,14 +1944,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1940,11 +1961,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>30</v>
@@ -1956,28 +1977,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1989,14 +2010,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2006,14 +2027,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2022,31 +2043,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2055,7 +2076,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2072,11 +2093,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2105,11 +2126,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>30</v>
@@ -2121,14 +2142,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2138,11 +2159,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2154,14 +2175,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2171,11 +2192,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>30</v>
@@ -2187,7 +2208,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2204,11 +2225,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2220,14 +2241,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2237,11 +2258,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2253,14 +2274,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2270,14 +2291,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2303,14 +2324,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2319,14 +2340,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2336,14 +2357,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2352,14 +2373,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2369,14 +2390,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2385,14 +2406,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2402,14 +2423,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2418,14 +2439,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2435,11 +2456,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2451,14 +2472,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2468,14 +2489,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2484,14 +2505,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2501,14 +2522,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2517,7 +2538,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2534,14 +2555,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2550,14 +2571,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2567,14 +2588,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2583,14 +2604,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2600,14 +2621,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2616,14 +2637,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2633,14 +2654,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2649,14 +2670,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2666,14 +2687,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2682,14 +2703,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2699,14 +2720,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2715,31 +2736,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2761,7 +2782,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2772,7 +2793,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2788,7 +2809,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2805,7 +2826,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2831,11 +2852,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2847,14 +2868,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2864,14 +2885,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2880,14 +2901,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2897,11 +2918,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2913,14 +2934,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2930,14 +2951,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2953,7 +2974,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2967,45 +2988,111 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2840.77</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>184</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>185</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
         <v>186</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>13</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>187</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>189</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>16</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>13</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>190</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2909.3699999999999</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>191</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>192</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>193</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3284,10 +3371,20 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -191,81 +191,87 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EZAMOL-C 20 TAB.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DICLAC 75 ID 30 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EZAMOL-C 20 TAB.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
   </si>
   <si>
@@ -440,6 +446,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -482,6 +497,12 @@
     <t>77.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
   </si>
   <si>
@@ -491,9 +512,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -584,7 +602,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 5:31 PM</t>
+    <t>Thursday, 7 August, 2025 5:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1621,7 +1639,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1631,11 +1649,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>40</v>
@@ -1647,14 +1665,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1664,11 +1682,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>30</v>
@@ -1680,14 +1698,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1697,11 +1715,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>30</v>
@@ -1713,7 +1731,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1734,7 +1752,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>30</v>
@@ -1746,7 +1764,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1763,11 +1781,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>30</v>
@@ -1779,14 +1797,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1796,11 +1814,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1812,7 +1830,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1829,14 +1847,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1845,7 +1863,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1862,11 +1880,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1878,7 +1896,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1895,11 +1913,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1911,7 +1929,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1928,11 +1946,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1944,14 +1962,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1961,7 +1979,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -1977,7 +1995,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1994,11 +2012,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2010,14 +2028,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2027,11 +2045,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2043,7 +2061,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2060,11 +2078,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2076,7 +2094,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2093,11 +2111,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2109,7 +2127,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2126,11 +2144,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>30</v>
@@ -2142,7 +2160,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2159,11 +2177,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2175,14 +2193,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2192,11 +2210,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>30</v>
@@ -2208,7 +2226,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2225,11 +2243,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2241,14 +2259,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2258,11 +2276,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2274,7 +2292,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2291,11 +2309,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2307,7 +2325,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2324,11 +2342,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2340,7 +2358,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2357,11 +2375,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>40</v>
@@ -2373,14 +2391,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2390,11 +2408,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>40</v>
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2423,11 +2441,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>35</v>
@@ -2439,7 +2457,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2456,11 +2474,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2472,14 +2490,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2489,14 +2507,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2505,14 +2523,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2522,14 +2540,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2538,14 +2556,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2555,14 +2573,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2571,14 +2589,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2588,11 +2606,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2604,14 +2622,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2621,14 +2639,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2637,7 +2655,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2654,11 +2672,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -2670,14 +2688,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2687,14 +2705,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2720,14 +2738,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2736,14 +2754,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2753,14 +2771,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2769,14 +2787,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2793,7 +2811,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2809,24 +2827,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2835,31 +2853,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2868,14 +2886,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2885,14 +2903,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2918,11 +2936,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2934,14 +2952,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2951,14 +2969,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2984,14 +3002,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3000,14 +3018,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3017,14 +3035,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3033,14 +3051,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3050,49 +3068,115 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2909.3699999999999</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>191</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
         <v>192</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>13</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>193</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>195</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>16</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>13</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>196</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3075.3699999999999</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>197</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>198</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>199</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3381,10 +3465,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
@@ -347,6 +356,15 @@
     <t>72.00</t>
   </si>
   <si>
+    <t>MELLITOFIX 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
   </si>
   <si>
@@ -470,6 +488,15 @@
     <t>79.9000</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -602,7 +629,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 5:58 PM</t>
+    <t>Thursday, 7 August, 2025 6:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1936,13 +1963,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1953,7 +1980,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1969,13 +1996,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1983,10 +2010,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1995,14 +2022,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2012,14 +2039,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2035,7 +2062,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2052,7 +2079,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2068,13 +2095,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2085,7 +2112,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2107,7 +2134,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2134,7 +2161,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2148,10 +2175,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2160,14 +2187,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2177,14 +2204,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2200,7 +2227,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2233,7 +2260,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2266,7 +2293,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2276,11 +2303,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2292,7 +2319,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2309,11 +2336,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2325,14 +2352,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2365,7 +2392,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2382,7 +2409,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2398,7 +2425,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2408,14 +2435,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2424,14 +2451,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2441,14 +2468,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2457,14 +2484,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2474,14 +2501,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2497,7 +2524,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2507,14 +2534,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>144</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2530,7 +2557,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2547,7 +2574,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2563,7 +2590,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2573,14 +2600,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2589,14 +2616,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2606,14 +2633,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2622,14 +2649,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2639,14 +2666,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2679,7 +2706,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2695,7 +2722,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2728,7 +2755,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2738,14 +2765,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2754,14 +2781,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2771,14 +2798,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2787,14 +2814,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2804,14 +2831,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2820,14 +2847,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2837,14 +2864,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2853,14 +2880,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2870,14 +2897,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2893,13 +2920,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2910,7 +2937,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2926,24 +2953,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2952,31 +2979,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2985,14 +3012,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3002,14 +3029,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3025,7 +3052,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3035,14 +3062,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3051,14 +3078,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3068,14 +3095,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3084,14 +3111,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3101,11 +3128,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3117,14 +3144,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3134,49 +3161,148 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>197</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>12</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>13</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>198</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>200</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>201</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>13</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>202</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>204</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>16</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>13</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>205</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>73</v>
       </c>
-      <c t="s" r="Q64" s="12">
+      <c t="s" r="Q67" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3075.3699999999999</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>197</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>198</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>199</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3203.6300000000001</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>206</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>207</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>208</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3475,10 +3601,25 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -119,6 +119,12 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
   </si>
   <si>
@@ -155,6 +161,27 @@
     <t>218.0000</t>
   </si>
   <si>
+    <t>BRAVAMAX 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -215,9 +242,6 @@
     <t>DICLAC 75 ID 30 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -236,7 +260,13 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>25.7400</t>
+    <t>EXARETIC 20 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
   </si>
   <si>
     <t>EZAMOL-C 20 TAB.</t>
@@ -290,6 +320,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -530,6 +569,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>57.7500</t>
+  </si>
+  <si>
     <t>VENTAMOR BLACK CHARCOAL SOAP 100 GM</t>
   </si>
   <si>
@@ -629,7 +677,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 6:09 PM</t>
+    <t>Thursday, 7 August, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1435,7 +1483,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1445,14 +1493,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1461,14 +1509,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1478,14 +1526,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1494,14 +1542,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1511,14 +1559,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1527,14 +1575,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1544,11 +1592,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1560,14 +1608,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1577,11 +1625,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1593,28 +1641,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>30</v>
@@ -1626,14 +1674,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1643,14 +1691,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1659,14 +1707,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1676,14 +1724,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1692,28 +1740,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>30</v>
@@ -1725,14 +1773,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1742,11 +1790,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>30</v>
@@ -1758,14 +1806,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1775,14 +1823,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1798,13 +1846,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1831,7 +1879,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1841,14 +1889,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1857,14 +1905,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1874,14 +1922,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1890,14 +1938,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1907,14 +1955,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1923,14 +1971,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1940,14 +1988,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1956,14 +2004,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1973,14 +2021,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1989,31 +2037,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2022,7 +2070,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2039,14 +2087,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2055,14 +2103,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2072,11 +2120,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2088,14 +2136,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2105,11 +2153,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -2121,31 +2169,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2154,7 +2202,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2167,15 +2215,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2187,14 +2235,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2204,11 +2252,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>30</v>
@@ -2220,14 +2268,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2237,14 +2285,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2253,14 +2301,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2270,14 +2318,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2286,31 +2334,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2319,14 +2367,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2336,11 +2384,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2352,14 +2400,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2369,11 +2417,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2385,14 +2433,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2402,14 +2450,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2418,14 +2466,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2435,14 +2483,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2451,14 +2499,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2468,14 +2516,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2484,14 +2532,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2501,14 +2549,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2517,14 +2565,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2534,14 +2582,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2550,14 +2598,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2567,14 +2615,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2583,14 +2631,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2600,14 +2648,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2616,14 +2664,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2633,14 +2681,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2649,14 +2697,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2666,14 +2714,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2682,14 +2730,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2699,14 +2747,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2715,14 +2763,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2732,11 +2780,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>30</v>
@@ -2748,14 +2796,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2765,14 +2813,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2781,14 +2829,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2798,14 +2846,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2814,14 +2862,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2831,11 +2879,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -2847,14 +2895,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2864,14 +2912,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2880,14 +2928,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2897,14 +2945,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2920,7 +2968,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2930,11 +2978,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2953,7 +3001,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2963,14 +3011,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2979,14 +3027,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3003,7 +3051,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3019,24 +3067,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3045,31 +3093,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3078,28 +3126,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3111,28 +3159,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3144,31 +3192,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3177,20 +3225,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3201,7 +3249,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3217,7 +3265,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3227,14 +3275,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3243,14 +3291,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3264,45 +3312,243 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3203.6300000000001</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>206</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>207</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>16</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>13</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
         <v>208</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>210</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>211</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>13</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>70</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>212</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>12</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>13</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>198</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>213</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>12</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>13</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>214</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>216</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>217</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>13</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>218</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>220</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>16</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>13</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>221</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3523.9400000000001</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>222</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>223</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>224</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3616,10 +3862,40 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -677,7 +677,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 6:11 PM</t>
+    <t>Thursday, 7 August, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -278,6 +290,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>EZOGAST 20MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
   </si>
   <si>
@@ -371,6 +392,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t xml:space="preserve">MALINDA  CREAM</t>
   </si>
   <si>
@@ -455,9 +485,6 @@
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -485,6 +512,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -518,6 +554,15 @@
     <t>6.7200</t>
   </si>
   <si>
+    <t>RENAL S-N 12 SACHET</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>RX MASSAGE GEL 50 GM</t>
   </si>
   <si>
@@ -611,15 +656,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
     <t>ايزي سويت قطعه</t>
   </si>
   <si>
     <t>10.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -671,13 +716,16 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 6:15 PM</t>
+    <t>Thursday, 7 August, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1467,7 +1515,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1476,14 +1524,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1493,14 +1541,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1509,14 +1557,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1526,14 +1574,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1542,14 +1590,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1559,14 +1607,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>46</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1582,7 +1630,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1592,14 +1640,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1608,7 +1656,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1625,11 +1673,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1641,20 +1689,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1665,7 +1713,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1687,7 +1735,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1698,7 +1746,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1747,7 +1795,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1757,14 +1805,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1773,14 +1821,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1830,7 +1878,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1846,24 +1894,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1872,28 +1920,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>30</v>
@@ -1905,14 +1953,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1922,11 +1970,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>30</v>
@@ -1938,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1955,11 +2003,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>30</v>
@@ -1971,14 +2019,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1988,11 +2036,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>30</v>
@@ -2004,14 +2052,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2028,7 +2076,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2044,7 +2092,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2061,7 +2109,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2070,14 +2118,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2110,7 +2158,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2127,7 +2175,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2136,14 +2184,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2153,14 +2201,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2169,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2186,14 +2234,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2202,31 +2250,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2235,14 +2283,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2252,11 +2300,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>30</v>
@@ -2268,28 +2316,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2301,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2318,11 +2366,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2334,28 +2382,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2367,14 +2415,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2384,14 +2432,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2400,14 +2448,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2417,11 +2465,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2433,31 +2481,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2466,7 +2514,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2483,11 +2531,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2499,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2516,11 +2564,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2532,14 +2580,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2549,14 +2597,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2565,14 +2613,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2589,7 +2637,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2605,7 +2653,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2622,7 +2670,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2638,7 +2686,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2655,7 +2703,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2671,7 +2719,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2681,14 +2729,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2697,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2714,14 +2762,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2730,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2747,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2763,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2780,14 +2828,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2796,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2813,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2836,7 +2884,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2853,7 +2901,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2869,21 +2917,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -2895,14 +2943,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2912,14 +2960,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2928,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2945,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2961,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2982,10 +3030,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2994,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3011,7 +3059,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3051,7 +3099,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3067,7 +3115,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3077,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>59</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3093,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3110,11 +3158,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>30</v>
@@ -3126,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3143,11 +3191,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3159,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3176,14 +3224,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3192,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3209,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3225,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3242,14 +3290,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3258,31 +3306,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3291,28 +3339,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3324,28 +3372,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3357,31 +3405,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3390,31 +3438,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3423,31 +3471,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3463,7 +3511,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3473,14 +3521,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3489,14 +3537,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3506,49 +3554,280 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3523.9400000000001</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>222</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>16</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>13</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>223</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>224</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>225</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>226</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>13</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>74</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>227</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>12</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>13</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>213</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>228</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>12</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>13</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>229</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>231</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>232</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>13</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>233</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>235</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>12</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>13</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>220</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>236</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>16</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>13</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>237</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3730.0500000000002</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>238</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>239</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>240</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3892,10 +4171,45 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CLOPEX GREL 75MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -725,7 +734,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 6:27 PM</t>
+    <t>Thursday, 7 August, 2025 6:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1795,7 +1804,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1805,14 +1814,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1821,14 +1830,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1845,7 +1854,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1861,7 +1870,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1871,11 +1880,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>30</v>
@@ -1887,14 +1896,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1920,20 +1929,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1944,7 +1953,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1966,7 +1975,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1993,7 +2002,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2003,11 +2012,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>30</v>
@@ -2019,14 +2028,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,11 +2045,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>30</v>
@@ -2059,7 +2068,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2092,7 +2101,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2125,7 +2134,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2135,14 +2144,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2151,14 +2160,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2175,7 +2184,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2201,14 +2210,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2224,7 +2233,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2257,7 +2266,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2274,7 +2283,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2290,7 +2299,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2323,13 +2332,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2340,7 +2349,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2356,13 +2365,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2370,10 +2379,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2382,14 +2391,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,14 +2408,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2422,7 +2431,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2439,7 +2448,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2455,7 +2464,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2488,13 +2497,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2505,7 +2514,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2527,7 +2536,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2554,7 +2563,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2568,10 +2577,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,7 +2589,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2597,11 +2606,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2620,7 +2629,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2637,7 +2646,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2653,7 +2662,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2670,7 +2679,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2686,7 +2695,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2703,7 +2712,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2719,7 +2728,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2738,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,14 +2754,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2769,7 +2778,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2785,7 +2794,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2804,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2837,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2851,7 +2860,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,11 +2870,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>46</v>
@@ -2877,14 +2886,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2903,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2917,24 +2926,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2950,17 +2959,17 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2983,7 +2992,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +3002,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>175</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3016,7 +3025,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,14 +3035,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>178</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>97</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3049,7 +3058,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,14 +3068,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3075,14 +3084,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,14 +3101,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>73</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3148,7 +3157,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3165,7 +3174,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3181,7 +3190,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3200,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3214,7 +3223,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3280,7 +3289,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3299,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3315,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,14 +3332,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3346,7 +3355,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3365,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,14 +3381,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,7 +3398,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3412,7 +3421,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,14 +3431,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,14 +3447,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,14 +3464,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,14 +3480,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,14 +3497,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,31 +3513,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3558,10 +3567,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,14 +3579,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3610,7 +3619,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,11 +3629,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,7 +3678,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3709,7 +3718,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,14 +3728,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,11 +3761,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3768,14 +3777,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,49 +3794,82 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3730.0500000000002</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>238</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>239</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>16</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>13</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
         <v>240</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3779.5500000000002</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>241</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>242</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>243</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4206,10 +4248,15 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -734,7 +734,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 6:29 PM</t>
+    <t>Thursday, 7 August, 2025 6:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -173,15 +173,6 @@
     <t>218.0000</t>
   </si>
   <si>
-    <t>BRAVAMAX 200MG 10 TAB</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -734,7 +725,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 6:30 PM</t>
+    <t>Thursday, 7 August, 2025 6:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1705,24 +1696,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1731,31 +1722,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1764,14 +1755,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1788,7 +1779,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1804,7 +1795,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1814,14 +1805,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1830,14 +1821,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1854,7 +1845,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1870,7 +1861,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1880,11 +1871,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>30</v>
@@ -1896,14 +1887,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1913,14 +1904,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1929,20 +1920,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1953,7 +1944,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1969,13 +1960,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2002,7 +1993,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2012,11 +2003,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>30</v>
@@ -2028,14 +2019,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2045,11 +2036,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>30</v>
@@ -2068,7 +2059,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2101,7 +2092,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2134,7 +2125,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2144,14 +2135,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2160,14 +2151,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2184,7 +2175,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2193,14 +2184,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2210,14 +2201,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2233,7 +2224,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2266,7 +2257,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2283,7 +2274,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2299,7 +2290,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2332,13 +2323,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2349,7 +2340,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2365,13 +2356,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2379,10 +2370,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2391,14 +2382,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2408,14 +2399,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2431,7 +2422,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2448,7 +2439,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2464,7 +2455,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2497,13 +2488,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2514,7 +2505,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2536,7 +2527,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2563,7 +2554,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2577,10 +2568,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2589,7 +2580,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2606,11 +2597,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2629,7 +2620,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2646,7 +2637,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2662,7 +2653,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2679,7 +2670,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2695,7 +2686,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2712,7 +2703,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2728,7 +2719,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2738,14 +2729,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2754,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2778,7 +2769,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2794,7 +2785,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2804,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2820,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2837,14 +2828,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2860,7 +2851,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2870,11 +2861,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>46</v>
@@ -2886,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2903,14 +2894,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2926,24 +2917,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2959,17 +2950,17 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2992,7 +2983,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3002,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>175</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3025,7 +3016,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3035,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>178</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3058,7 +3049,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3068,14 +3059,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3084,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3101,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3157,7 +3148,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3174,7 +3165,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3190,7 +3181,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3200,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3223,7 +3214,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3233,14 +3224,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3289,7 +3280,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3299,14 +3290,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3315,14 +3306,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3332,14 +3323,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3355,7 +3346,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3365,14 +3356,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3381,14 +3372,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3398,7 +3389,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3421,7 +3412,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3431,14 +3422,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3447,14 +3438,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3464,14 +3455,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3480,14 +3471,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3497,14 +3488,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3513,31 +3504,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3546,14 +3537,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3567,10 +3558,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3579,14 +3570,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3619,7 +3610,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3629,11 +3620,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3645,14 +3636,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3662,14 +3653,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3678,7 +3669,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3695,14 +3686,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3718,7 +3709,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3728,14 +3719,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3744,14 +3735,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3761,11 +3752,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3777,14 +3768,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3794,82 +3785,49 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="A81" s="7">
-        <v>75</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c t="s" r="C81" s="8">
+      <c r="P81" s="13">
+        <v>3657.5500000000002</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>238</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
         <v>239</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c t="s" r="H81" s="9">
-        <v>16</v>
-      </c>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c t="s" r="L81" s="10">
-        <v>13</v>
-      </c>
-      <c r="M81" s="10"/>
-      <c t="s" r="N81" s="8">
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
         <v>240</v>
       </c>
-      <c r="O81" s="8"/>
-      <c t="s" r="P81" s="11">
-        <v>88</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3779.5500000000002</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>241</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>242</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>243</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4248,15 +4206,10 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -725,7 +725,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 6:31 PM</t>
+    <t>Thursday, 7 August, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>DICLAC 75 ID 30 TAB</t>
   </si>
   <si>
@@ -365,9 +374,6 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>HISTAZINE-1 10MG 20 TAB</t>
   </si>
   <si>
@@ -395,6 +401,9 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>4:1</t>
+  </si>
+  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -497,6 +506,15 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -551,6 +569,9 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
+    <t>4:6</t>
+  </si>
+  <si>
     <t>6.7200</t>
   </si>
   <si>
@@ -611,6 +632,9 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>62.0000</t>
   </si>
   <si>
@@ -725,7 +749,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 6:35 PM</t>
+    <t>Thursday, 7 August, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1927,13 +1951,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1966,7 +1990,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1993,7 +2017,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2003,11 +2027,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>30</v>
@@ -2019,14 +2043,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,11 +2060,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>30</v>
@@ -2059,7 +2083,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2092,7 +2116,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2125,7 +2149,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2135,14 +2159,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2151,14 +2175,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2175,7 +2199,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,14 +2208,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2201,14 +2225,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2224,7 +2248,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2257,7 +2281,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2274,7 +2298,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2290,7 +2314,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2323,13 +2347,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2340,7 +2364,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2356,13 +2380,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2370,10 +2394,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2389,7 +2413,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2403,10 +2427,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2415,14 +2439,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,14 +2456,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2448,14 +2472,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,11 +2489,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2481,20 +2505,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2505,7 +2529,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2527,7 +2551,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2554,7 +2578,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2568,10 +2592,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,7 +2604,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2597,11 +2621,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2620,7 +2644,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2637,7 +2661,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2653,7 +2677,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2670,7 +2694,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2686,7 +2710,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2703,7 +2727,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2719,7 +2743,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2753,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,14 +2769,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2769,7 +2793,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2785,7 +2809,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2819,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2835,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2852,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2851,7 +2875,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,11 +2885,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>46</v>
@@ -2877,7 +2901,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2894,14 +2918,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,31 +2934,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2950,7 +2974,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2967,7 +2991,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2983,24 +3007,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>175</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3016,7 +3040,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3033,7 +3057,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3049,7 +3073,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,14 +3083,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3075,14 +3099,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,14 +3116,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3108,14 +3132,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,14 +3149,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3141,14 +3165,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3182,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,14 +3198,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3195,7 +3219,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3207,14 +3231,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,11 +3248,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>30</v>
@@ -3240,14 +3264,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3281,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3273,14 +3297,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3314,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3330,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,11 +3347,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>30</v>
@@ -3339,14 +3363,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3380,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,14 +3396,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,14 +3413,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,14 +3429,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,14 +3446,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,14 +3462,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,14 +3479,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,7 +3495,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3488,14 +3512,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,31 +3528,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,31 +3561,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,14 +3594,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3587,14 +3611,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,14 +3627,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,11 +3644,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3636,14 +3660,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,14 +3677,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,14 +3693,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,14 +3710,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,14 +3726,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,14 +3743,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,7 +3759,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3752,14 +3776,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3768,14 +3792,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,49 +3809,115 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3657.5500000000002</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>238</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>239</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>240</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>243</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>12</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>13</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>228</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>244</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>16</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>13</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>245</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3802.75</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>246</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>247</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>248</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4206,10 +4296,20 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -278,6 +278,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -383,12 +392,6 @@
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
@@ -410,6 +413,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LINEZ 600MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MALINDA  CREAM</t>
   </si>
   <si>
@@ -443,6 +455,15 @@
     <t>67.3200</t>
   </si>
   <si>
+    <t>MELOQUIN 4% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
   </si>
   <si>
@@ -749,7 +770,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 6:45 PM</t>
+    <t>Thursday, 7 August, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2060,14 +2081,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2076,14 +2097,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2093,11 +2114,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>30</v>
@@ -2116,7 +2137,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2149,7 +2170,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2182,7 +2203,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2192,14 +2213,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2208,14 +2229,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2232,7 +2253,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2241,14 +2262,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2258,14 +2279,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>109</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2281,7 +2302,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2314,7 +2335,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2331,7 +2352,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2347,7 +2368,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2380,13 +2401,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2394,10 +2415,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2406,31 +2427,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2439,14 +2460,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2456,14 +2477,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2479,7 +2500,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2489,14 +2510,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2505,14 +2526,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2522,11 +2543,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2538,31 +2559,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2571,7 +2592,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2588,11 +2609,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2604,31 +2625,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2637,14 +2658,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,14 +2675,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2687,14 +2708,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2703,14 +2724,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2720,11 +2741,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -2736,14 +2757,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,11 +2774,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2769,14 +2790,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2786,14 +2807,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2802,14 +2823,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,14 +2840,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2835,14 +2856,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,14 +2873,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2868,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,14 +2906,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2901,14 +2922,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,14 +2939,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,14 +2955,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,14 +3005,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3000,28 +3021,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,14 +3071,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3066,14 +3087,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3083,14 +3104,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>181</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3099,31 +3120,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3132,14 +3153,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,11 +3170,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -3165,14 +3186,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,14 +3203,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,14 +3236,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3231,14 +3252,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,11 +3269,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>30</v>
@@ -3264,14 +3285,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,11 +3302,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3297,7 +3318,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3314,14 +3335,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3330,14 +3351,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,11 +3368,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>30</v>
@@ -3363,14 +3384,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,14 +3401,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,14 +3417,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,11 +3434,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>30</v>
@@ -3429,14 +3450,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,14 +3467,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3500,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,14 +3516,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,14 +3533,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3535,7 +3556,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3545,14 +3566,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3561,14 +3582,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3578,14 +3599,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3601,24 +3622,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3640,7 +3661,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3651,7 +3672,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3667,24 +3688,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3693,14 +3714,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3710,14 +3731,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3726,14 +3747,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3743,14 +3764,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3759,14 +3780,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3776,14 +3797,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3792,14 +3813,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3809,11 +3830,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3825,7 +3846,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3849,7 +3870,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3858,14 +3879,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3875,49 +3896,148 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>246</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>247</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>13</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>248</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>250</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>12</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>13</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>235</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>251</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>16</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>13</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>252</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>88</v>
       </c>
-      <c t="s" r="Q82" s="12">
+      <c t="s" r="Q85" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3802.75</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>246</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>247</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>248</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4096.75</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>253</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>254</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>255</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4306,10 +4426,25 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -770,7 +770,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 6:46 PM</t>
+    <t>Thursday, 7 August, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>DECANCIT S.R 20 F.C.TAB</t>
   </si>
   <si>
@@ -368,6 +377,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
     <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -383,6 +401,15 @@
     <t>66.00</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>HISTAZINE-1 10MG 20 TAB</t>
   </si>
   <si>
@@ -770,7 +797,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 6:48 PM</t>
+    <t>Thursday, 7 August, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1873,7 +1900,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1906,7 +1933,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1916,11 +1943,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>30</v>
@@ -1932,14 +1959,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1949,14 +1976,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1965,14 +1992,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1989,7 +2016,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2005,13 +2032,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2044,7 +2071,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2071,7 +2098,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2088,7 +2115,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2114,14 +2141,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2130,14 +2157,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2147,11 +2174,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>30</v>
@@ -2170,7 +2197,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2203,7 +2230,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2236,7 +2263,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2246,14 +2273,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2262,14 +2289,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2286,7 +2313,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2295,14 +2322,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2312,14 +2339,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2335,7 +2362,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2368,7 +2395,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2385,7 +2412,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2401,7 +2428,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2434,13 +2461,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2448,10 +2475,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2460,14 +2487,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2477,11 +2504,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2493,28 +2520,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2526,31 +2553,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2559,14 +2586,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2576,11 +2603,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2592,14 +2619,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2609,11 +2636,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2625,31 +2652,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2658,14 +2685,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2682,7 +2709,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2698,7 +2725,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2712,10 +2739,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2724,31 +2751,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2757,7 +2784,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2774,11 +2801,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2790,14 +2817,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2807,14 +2834,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2830,7 +2857,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2863,7 +2890,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2896,7 +2923,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2906,14 +2933,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2922,14 +2949,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2939,14 +2966,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2955,14 +2982,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2972,14 +2999,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2995,7 +3022,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3005,14 +3032,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3021,14 +3048,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3038,14 +3065,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3071,14 +3098,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3087,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3104,14 +3131,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3120,28 +3147,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3153,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3170,14 +3197,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3193,7 +3220,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3203,14 +3230,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>188</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3226,24 +3253,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3259,7 +3286,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3269,7 +3296,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3292,7 +3319,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3302,14 +3329,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>197</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3325,7 +3352,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3342,7 +3369,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3358,7 +3385,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3368,7 +3395,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3391,7 +3418,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3401,11 +3428,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3441,7 +3468,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3457,7 +3484,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3500,14 +3527,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3523,7 +3550,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3556,7 +3583,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3566,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3582,14 +3609,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,14 +3626,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3615,14 +3642,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3632,14 +3659,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3648,14 +3675,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3665,14 +3692,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3688,7 +3715,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3698,14 +3725,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3714,31 +3741,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3747,31 +3774,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3780,31 +3807,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3820,7 +3847,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3830,14 +3857,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3853,7 +3880,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3863,14 +3890,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3879,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3896,14 +3923,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3912,14 +3939,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3929,11 +3956,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3945,7 +3972,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3962,14 +3989,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3978,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3995,49 +4022,148 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>255</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>256</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>13</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>257</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4096.75</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>253</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>254</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>255</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>259</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>12</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>13</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>244</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>260</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>16</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>13</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>261</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4290.7399999999998</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>262</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>263</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>264</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4441,10 +4567,25 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -404,6 +404,9 @@
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -797,7 +800,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 6:50 PM</t>
+    <t>Thursday, 7 August, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1900,7 +1903,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2461,7 +2464,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2560,7 +2563,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2570,11 +2573,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2586,7 +2589,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2603,7 +2606,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2619,7 +2622,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2652,7 +2655,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2669,11 +2672,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2685,14 +2688,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2702,11 +2705,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2718,7 +2721,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2735,11 +2738,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2751,7 +2754,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2768,11 +2771,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2784,7 +2787,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2801,11 +2804,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2817,7 +2820,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2834,7 +2837,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2850,7 +2853,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2867,11 +2870,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -2883,7 +2886,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2900,11 +2903,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2916,7 +2919,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2933,11 +2936,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2949,7 +2952,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2966,11 +2969,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>30</v>
@@ -2982,7 +2985,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2999,11 +3002,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3015,14 +3018,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3032,11 +3035,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
@@ -3048,7 +3051,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3065,11 +3068,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3081,7 +3084,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3098,11 +3101,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -3114,7 +3117,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3131,11 +3134,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>46</v>
@@ -3147,7 +3150,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3164,11 +3167,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3180,14 +3183,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3197,11 +3200,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>46</v>
@@ -3213,7 +3216,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3230,11 +3233,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>39</v>
@@ -3246,14 +3249,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3267,7 +3270,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>30</v>
@@ -3279,7 +3282,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3296,11 +3299,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>30</v>
@@ -3312,7 +3315,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3329,14 +3332,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3345,7 +3348,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3362,11 +3365,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>106</v>
@@ -3378,14 +3381,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3399,7 +3402,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>30</v>
@@ -3411,7 +3414,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3428,11 +3431,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3444,7 +3447,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3461,11 +3464,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3477,7 +3480,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3494,11 +3497,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>30</v>
@@ -3510,14 +3513,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,7 +3530,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3543,7 +3546,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3560,11 +3563,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>30</v>
@@ -3576,7 +3579,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3593,11 +3596,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>30</v>
@@ -3609,14 +3612,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3630,7 +3633,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>106</v>
@@ -3642,7 +3645,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3659,11 +3662,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3675,7 +3678,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3696,7 +3699,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3708,7 +3711,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3725,11 +3728,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3741,7 +3744,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3758,11 +3761,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>46</v>
@@ -3774,14 +3777,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3791,11 +3794,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>106</v>
@@ -3807,7 +3810,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3824,11 +3827,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -3840,7 +3843,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3857,11 +3860,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -3873,14 +3876,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,11 +3893,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3906,7 +3909,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3923,11 +3926,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3939,14 +3942,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3960,7 +3963,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3972,7 +3975,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3989,11 +3992,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>106</v>
@@ -4005,7 +4008,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4022,11 +4025,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>106</v>
@@ -4038,14 +4041,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4055,11 +4058,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4071,7 +4074,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4088,11 +4091,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4104,7 +4107,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4121,7 +4124,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4139,7 +4142,7 @@
     </row>
     <row r="90" ht="16.5" customHeight="1">
       <c t="s" r="A90" s="14">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -4147,13 +4150,13 @@
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c t="s" r="G90" s="15">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="16"/>
       <c t="s" r="K90" s="17">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -404,9 +404,6 @@
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -791,6 +788,9 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
@@ -800,7 +800,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 7:07 PM</t>
+    <t>Thursday, 7 August, 2025 7:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1903,7 +1903,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2464,7 +2464,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2563,7 +2563,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2573,11 +2573,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2672,11 +2672,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2688,14 +2688,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2705,11 +2705,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2738,11 +2738,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2771,11 +2771,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2804,11 +2804,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2870,11 +2870,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2903,11 +2903,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2936,11 +2936,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2969,11 +2969,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>30</v>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3002,11 +3002,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3018,14 +3018,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3035,11 +3035,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3068,11 +3068,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3134,11 +3134,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>46</v>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3167,11 +3167,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3183,14 +3183,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3200,11 +3200,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>46</v>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3233,11 +3233,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>39</v>
@@ -3249,14 +3249,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>30</v>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3299,11 +3299,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>30</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3332,14 +3332,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>197</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>198</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3365,11 +3365,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>106</v>
@@ -3381,14 +3381,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>30</v>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3431,11 +3431,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3464,11 +3464,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3497,11 +3497,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>30</v>
@@ -3513,14 +3513,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3563,11 +3563,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>30</v>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3596,11 +3596,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>30</v>
@@ -3612,14 +3612,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>106</v>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3728,11 +3728,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3761,11 +3761,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>46</v>
@@ -3777,14 +3777,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3794,11 +3794,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>106</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3827,11 +3827,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3860,11 +3860,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -3876,14 +3876,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3893,11 +3893,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3926,11 +3926,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3942,14 +3942,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3992,11 +3992,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>106</v>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4025,11 +4025,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>106</v>
@@ -4041,14 +4041,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4058,11 +4058,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4074,14 +4074,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4091,11 +4091,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4107,14 +4107,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4124,49 +4124,82 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4290.7399999999998</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>261</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>16</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>13</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>262</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4320.7399999999998</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
         <v>263</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
         <v>264</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
         <v>265</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4585,10 +4618,15 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -134,180 +134,201 @@
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>28.6000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>BABY NADIF NASAL SPRAY 50 ML</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>218.0000</t>
+  </si>
+  <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CLOPEX GREL 75MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>DECANCIT S.R 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
     <t>25.7400</t>
   </si>
   <si>
-    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
-  </si>
-  <si>
-    <t>1:16</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>28.6000</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>BABY NADIF NASAL SPRAY 50 ML</t>
-  </si>
-  <si>
-    <t>218.00</t>
-  </si>
-  <si>
-    <t>218.0000</t>
-  </si>
-  <si>
-    <t>CARVID 6.25MG 30TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CLOPEX GREL 75MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>DECANCIT S.R 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 75 ID 30 TAB</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
     <t>EXARETIC 20 MG 30 TAB.</t>
   </si>
   <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
     <t>EZAMOL-C 20 TAB.</t>
   </si>
   <si>
@@ -329,9 +350,6 @@
     <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>37.00</t>
   </si>
   <si>
@@ -347,9 +365,6 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
   </si>
   <si>
@@ -773,7 +788,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
@@ -800,7 +815,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 7:08 PM</t>
+    <t>Thursday, 7 August, 2025 7:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1639,7 +1654,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1653,10 +1668,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1665,14 +1680,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1682,14 +1697,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1722,7 +1737,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1738,7 +1753,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1748,14 +1763,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1764,20 +1779,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1788,7 +1803,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1810,7 +1825,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1821,7 +1836,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1837,7 +1852,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1847,11 +1862,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>30</v>
@@ -1863,14 +1878,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1880,11 +1895,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1896,14 +1911,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1913,11 +1928,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>30</v>
@@ -1929,14 +1944,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1946,14 +1961,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1962,14 +1977,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1979,11 +1994,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>30</v>
@@ -1995,14 +2010,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2019,7 +2034,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2035,7 +2050,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2045,11 +2060,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>30</v>
@@ -2061,31 +2076,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2094,14 +2109,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2111,11 +2126,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>30</v>
@@ -2127,31 +2142,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2160,14 +2175,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2177,11 +2192,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>30</v>
@@ -2193,14 +2208,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2210,14 +2225,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2226,14 +2241,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2243,11 +2258,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2259,14 +2274,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2276,11 +2291,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -2292,14 +2307,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2316,7 +2331,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2332,7 +2347,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2349,7 +2364,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2358,14 +2373,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2375,11 +2390,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2391,14 +2406,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2408,14 +2423,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2424,14 +2439,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2441,14 +2456,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2457,14 +2472,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2474,14 +2489,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2490,14 +2505,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2507,11 +2522,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2523,31 +2538,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2563,13 +2578,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2580,7 +2595,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2596,13 +2611,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2610,10 +2625,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2629,21 +2644,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2655,14 +2670,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2672,11 +2687,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2688,14 +2703,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2705,14 +2720,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2721,14 +2736,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2738,14 +2753,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2754,31 +2769,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2787,7 +2802,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2804,11 +2819,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2820,31 +2835,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2860,7 +2875,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2877,7 +2892,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2893,7 +2908,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2907,10 +2922,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2919,14 +2934,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2936,14 +2951,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2952,14 +2967,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2969,14 +2984,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2985,14 +3000,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3002,11 +3017,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3018,14 +3033,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3035,11 +3050,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
@@ -3051,7 +3066,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3068,11 +3083,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3084,14 +3099,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3101,7 +3116,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3124,7 +3139,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3141,7 +3156,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3157,7 +3172,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3167,11 +3182,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3183,14 +3198,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3200,14 +3215,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3223,7 +3238,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3240,7 +3255,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3262,18 +3277,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3282,14 +3297,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3299,14 +3314,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3315,31 +3330,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>197</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3348,14 +3363,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3365,14 +3380,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3381,14 +3396,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3398,14 +3413,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3414,14 +3429,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3431,14 +3446,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3447,14 +3462,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3464,14 +3479,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3480,14 +3495,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3497,14 +3512,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3513,14 +3528,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3530,11 +3545,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3546,14 +3561,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3563,11 +3578,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>30</v>
@@ -3579,14 +3594,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3600,10 +3615,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3612,14 +3627,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3629,14 +3644,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3645,14 +3660,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3662,11 +3677,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3678,14 +3693,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3695,14 +3710,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3718,7 +3733,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3735,7 +3750,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3751,7 +3766,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3761,14 +3776,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3784,7 +3799,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3794,14 +3809,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3810,14 +3825,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3827,14 +3842,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3850,24 +3865,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3876,31 +3891,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3909,14 +3924,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3926,14 +3941,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3942,14 +3957,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3959,11 +3974,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3982,7 +3997,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3992,14 +4007,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4008,14 +4023,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4025,14 +4040,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>85</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4041,14 +4056,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4058,14 +4073,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4074,14 +4089,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4091,14 +4106,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4114,7 +4129,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4124,11 +4139,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4140,14 +4155,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4157,49 +4172,115 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4320.7399999999998</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>263</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>264</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>265</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>12</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>13</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>249</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>266</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>16</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>13</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>267</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4544.0100000000002</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>268</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>269</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>270</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4623,10 +4704,20 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -815,7 +815,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 7:11 PM</t>
+    <t>Thursday, 7 August, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -743,6 +743,12 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
@@ -815,7 +821,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 7:28 PM</t>
+    <t>Thursday, 7 August, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3898,7 +3904,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3908,14 +3914,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3924,31 +3930,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3964,7 +3970,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3974,14 +3980,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3990,14 +3996,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4007,11 +4013,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4023,14 +4029,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4040,11 +4046,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4063,7 +4069,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4073,14 +4079,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4089,7 +4095,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4106,14 +4112,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4122,14 +4128,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4139,14 +4145,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4155,14 +4161,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4172,11 +4178,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4188,14 +4194,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4205,11 +4211,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4221,14 +4227,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4238,49 +4244,82 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4544.0100000000002</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>268</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>16</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>13</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
         <v>269</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4612.0100000000002</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
         <v>270</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>271</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>272</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4714,10 +4753,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -221,6 +230,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CLOPEX GREL 75MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -230,6 +248,15 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>CONISTOVA 2 MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>47.5000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -260,6 +287,12 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -410,6 +443,12 @@
     <t>55.4400</t>
   </si>
   <si>
+    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
@@ -611,6 +650,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>PEPZOL 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -752,6 +800,18 @@
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>ايزي سويت قطعه</t>
   </si>
   <si>
@@ -797,16 +857,19 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شامبو بانتين 190 مللي </t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
   </si>
   <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
@@ -1627,7 +1690,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1637,14 +1700,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1653,14 +1716,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1670,14 +1733,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1686,14 +1749,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1703,14 +1766,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>46</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1726,7 +1789,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1736,14 +1799,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1752,14 +1815,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1769,14 +1832,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1785,14 +1848,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1809,7 +1872,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1825,24 +1888,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1851,28 +1914,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>30</v>
@@ -1884,14 +1947,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1901,14 +1964,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1917,14 +1980,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1941,7 +2004,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1957,7 +2020,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1967,14 +2030,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1983,14 +2046,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2000,11 +2063,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>30</v>
@@ -2016,14 +2079,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2033,11 +2096,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>30</v>
@@ -2049,14 +2112,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2066,14 +2129,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2082,14 +2145,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2099,14 +2162,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2115,14 +2178,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2132,11 +2195,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>30</v>
@@ -2148,31 +2211,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2181,14 +2244,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2198,11 +2261,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>30</v>
@@ -2214,14 +2277,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2231,14 +2294,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2247,14 +2310,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2264,7 +2327,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2287,21 +2350,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -2313,14 +2376,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2330,11 +2393,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>30</v>
@@ -2346,7 +2409,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2363,14 +2426,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2379,14 +2442,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2396,14 +2459,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2412,14 +2475,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2429,14 +2492,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2445,7 +2508,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2462,14 +2525,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2478,7 +2541,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2495,14 +2558,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2511,14 +2574,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2528,14 +2591,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2544,14 +2607,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2561,14 +2624,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2577,14 +2640,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2594,14 +2657,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2610,7 +2673,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2623,15 +2686,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2650,13 +2713,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2667,7 +2730,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2697,7 +2760,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2709,14 +2772,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2726,14 +2789,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2742,14 +2805,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2759,14 +2822,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2775,31 +2838,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2815,13 +2878,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2848,13 +2911,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2862,10 +2925,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2874,14 +2937,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2891,11 +2954,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2907,14 +2970,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,11 +2987,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>30</v>
@@ -2940,14 +3003,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2957,11 +3020,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>30</v>
@@ -2973,7 +3036,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2990,11 +3053,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3006,7 +3069,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3019,15 +3082,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3039,14 +3102,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3056,14 +3119,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3072,14 +3135,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3089,14 +3152,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3105,14 +3168,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3122,11 +3185,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -3138,14 +3201,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3155,11 +3218,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3171,14 +3234,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3188,14 +3251,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3204,14 +3267,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3221,14 +3284,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3237,14 +3300,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3254,14 +3317,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3270,14 +3333,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3287,14 +3350,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3310,7 +3373,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3327,7 +3390,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3343,21 +3406,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>30</v>
@@ -3369,14 +3432,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3386,14 +3449,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3402,14 +3465,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3419,14 +3482,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>202</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3435,14 +3498,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3452,14 +3515,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3468,14 +3531,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3485,14 +3548,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3501,31 +3564,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3534,14 +3597,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3551,14 +3614,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3567,14 +3630,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3584,14 +3647,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3600,14 +3663,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3617,14 +3680,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3633,14 +3696,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3650,14 +3713,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3666,14 +3729,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,11 +3746,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3699,14 +3762,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3716,14 +3779,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3732,14 +3795,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3749,14 +3812,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3765,14 +3828,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3782,14 +3845,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>85</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3798,14 +3861,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3819,7 +3882,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3831,14 +3894,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3848,14 +3911,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3871,7 +3934,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3881,14 +3944,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,14 +3960,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3914,14 +3977,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3937,7 +4000,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3947,11 +4010,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>30</v>
@@ -3963,7 +4026,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3976,18 +4039,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3996,28 +4059,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4029,31 +4092,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4075,18 +4138,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4095,31 +4158,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4128,31 +4191,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4161,14 +4224,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4178,11 +4241,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4194,14 +4257,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4211,14 +4274,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4227,14 +4290,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4244,11 +4307,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4260,7 +4323,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4277,49 +4340,313 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>276</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>277</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>13</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>96</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>278</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>12</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>13</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>258</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>279</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>12</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>13</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>280</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>282</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>12</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>13</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>283</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>285</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>264</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>13</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>286</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>287</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
         <v>99</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4612.0100000000002</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>270</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>13</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>226</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>288</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>12</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>13</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
         <v>271</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>272</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>289</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>16</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>13</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>290</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5025.1400000000003</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>291</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>292</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>293</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4758,10 +5085,50 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -884,7 +884,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 7:51 PM</t>
+    <t>Thursday, 7 August, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>ACTRAPID HM 100 I.U./ML 5*3ML PENFILLS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>338.00</t>
+  </si>
+  <si>
+    <t>338.0000</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -137,9 +149,6 @@
     <t>39.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -344,6 +353,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>101.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -884,7 +902,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 7:52 PM</t>
+    <t>Thursday, 7 August, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1641,7 +1659,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1650,14 +1668,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1667,14 +1685,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1690,7 +1708,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1700,14 +1718,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1716,14 +1734,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1740,7 +1758,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1749,14 +1767,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1766,14 +1784,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1782,14 +1800,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1799,14 +1817,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1822,7 +1840,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1832,14 +1850,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1848,14 +1866,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1865,14 +1883,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1881,14 +1899,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1905,7 +1923,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1921,24 +1939,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1947,31 +1965,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1980,14 +1998,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1997,14 +2015,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2013,14 +2031,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2037,7 +2055,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2053,7 +2071,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2070,7 +2088,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2086,7 +2104,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2103,7 +2121,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2119,7 +2137,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2129,14 +2147,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2145,14 +2163,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2169,7 +2187,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2185,7 +2203,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2202,7 +2220,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2218,7 +2236,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2228,14 +2246,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2244,14 +2262,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2261,14 +2279,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2277,14 +2295,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2294,14 +2312,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2310,14 +2328,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2334,7 +2352,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2350,13 +2368,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2367,7 +2385,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2383,13 +2401,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2400,7 +2418,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2416,7 +2434,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2433,7 +2451,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2449,7 +2467,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2459,14 +2477,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2475,14 +2493,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2492,14 +2510,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2508,14 +2526,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2525,14 +2543,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2541,14 +2559,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2558,14 +2576,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2581,7 +2599,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2598,7 +2616,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2614,7 +2632,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2631,7 +2649,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2647,7 +2665,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2680,7 +2698,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2697,7 +2715,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2713,7 +2731,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2730,7 +2748,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2746,7 +2764,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2763,7 +2781,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2779,7 +2797,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2796,7 +2814,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2812,7 +2830,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2826,10 +2844,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2838,31 +2856,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2871,28 +2889,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2904,31 +2922,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2937,28 +2955,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2970,14 +2988,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2987,14 +3005,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3003,14 +3021,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3020,14 +3038,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3036,14 +3054,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3053,14 +3071,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3069,20 +3087,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3093,7 +3111,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3142,13 +3160,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3156,10 +3174,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3168,14 +3186,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3185,14 +3203,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3201,14 +3219,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3218,14 +3236,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3241,7 +3259,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3258,7 +3276,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3274,7 +3292,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3291,7 +3309,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3307,7 +3325,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3340,7 +3358,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3350,14 +3368,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3366,7 +3384,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3383,11 +3401,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3399,14 +3417,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3416,14 +3434,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3432,14 +3450,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3449,14 +3467,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3465,14 +3483,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3482,14 +3500,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3505,7 +3523,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3515,14 +3533,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3531,14 +3549,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3548,14 +3566,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3564,31 +3582,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3604,7 +3622,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3621,7 +3639,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3637,24 +3655,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3670,7 +3688,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3680,14 +3698,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>218</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3720,7 +3738,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3736,7 +3754,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3746,14 +3764,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>224</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3769,7 +3787,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3786,7 +3804,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3802,7 +3820,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3812,14 +3830,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3835,7 +3853,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3852,7 +3870,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3868,7 +3886,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3878,11 +3896,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3901,7 +3919,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3918,7 +3936,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3934,7 +3952,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3944,14 +3962,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3967,7 +3985,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3977,14 +3995,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4000,7 +4018,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4017,7 +4035,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4033,7 +4051,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4043,14 +4061,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4059,14 +4077,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4076,14 +4094,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4092,14 +4110,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4109,14 +4127,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4125,14 +4143,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4149,7 +4167,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4165,7 +4183,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4175,14 +4193,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4198,7 +4216,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4208,14 +4226,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4224,28 +4242,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4257,31 +4275,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4330,7 +4348,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4344,10 +4362,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4356,14 +4374,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4373,11 +4391,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>96</v>
+        <v>277</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4389,14 +4407,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4406,14 +4424,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>277</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4422,14 +4440,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4439,14 +4457,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4455,7 +4473,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4472,14 +4490,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>284</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4495,7 +4513,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4509,10 +4527,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4521,14 +4539,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4538,11 +4556,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4554,14 +4572,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4571,11 +4589,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4587,14 +4605,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4604,49 +4622,115 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5025.1400000000003</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>291</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>292</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>293</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>294</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>12</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>13</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>277</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>295</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>16</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>13</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>296</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5464.1400000000003</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>297</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>298</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>299</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5125,10 +5209,20 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -326,6 +326,18 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
@@ -596,9 +608,6 @@
     <t>1:6</t>
   </si>
   <si>
-    <t>156.00</t>
-  </si>
-  <si>
     <t>12.4800</t>
   </si>
   <si>
@@ -902,7 +911,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 8:26 PM</t>
+    <t>Thursday, 7 August, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2368,7 +2377,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2378,14 +2387,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2394,28 +2403,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>34</v>
@@ -2427,7 +2436,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2440,15 +2449,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>34</v>
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2477,14 +2486,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2493,14 +2502,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2510,11 +2519,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2526,7 +2535,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2543,14 +2552,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2559,14 +2568,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2576,11 +2585,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>34</v>
@@ -2592,14 +2601,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2609,11 +2618,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>34</v>
@@ -2625,14 +2634,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2642,11 +2651,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>34</v>
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2675,14 +2684,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2741,14 +2750,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2774,11 +2783,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2840,11 +2849,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>34</v>
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2873,11 +2882,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>34</v>
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2922,7 +2931,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2935,15 +2944,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2955,14 +2964,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2972,11 +2981,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2988,31 +2997,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3021,14 +3030,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3038,14 +3047,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3054,14 +3063,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3071,14 +3080,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3127,7 +3136,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3137,14 +3146,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3153,7 +3162,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3166,15 +3175,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3186,7 +3195,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3199,15 +3208,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3219,14 +3228,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3236,14 +3245,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3252,7 +3261,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3269,11 +3278,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -3285,14 +3294,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3302,14 +3311,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3318,7 +3327,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3335,11 +3344,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3351,14 +3360,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3368,14 +3377,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3384,14 +3393,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3401,14 +3410,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3417,14 +3426,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3441,7 +3450,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3457,7 +3466,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3467,14 +3476,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3490,7 +3499,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3500,14 +3509,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3516,14 +3525,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3533,14 +3542,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3556,7 +3565,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3573,7 +3582,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3589,7 +3598,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3599,14 +3608,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3632,14 +3641,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3655,24 +3664,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3688,17 +3697,17 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3721,7 +3730,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3738,7 +3747,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3754,7 +3763,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3764,14 +3773,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3787,7 +3796,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3797,14 +3806,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>227</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>47</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3820,7 +3829,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3830,14 +3839,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3853,7 +3862,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3863,14 +3872,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>93</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3919,7 +3928,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3936,7 +3945,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3952,7 +3961,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>241</v>
+        <v>47</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3962,14 +3971,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3985,7 +3994,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3995,14 +4004,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4051,7 +4060,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4061,14 +4070,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4084,7 +4093,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4094,14 +4103,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4117,7 +4126,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4127,14 +4136,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4143,14 +4152,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,7 +4169,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4183,7 +4192,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4193,14 +4202,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4209,14 +4218,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>263</v>
+        <v>49</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4226,14 +4235,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4242,14 +4251,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4259,14 +4268,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4275,14 +4284,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4292,14 +4301,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4308,31 +4317,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4341,14 +4350,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4362,10 +4371,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4374,14 +4383,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4395,10 +4404,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4407,14 +4416,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4447,7 +4456,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>283</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4457,11 +4466,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4473,14 +4482,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4490,14 +4499,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>99</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>283</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4506,7 +4515,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4523,14 +4532,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>287</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>27</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4563,7 +4572,7 @@
         <v>290</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4579,7 +4588,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4593,7 +4602,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4605,14 +4614,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>102</v>
+        <v>273</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4622,11 +4631,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4638,14 +4647,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4655,11 +4664,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4671,14 +4680,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4688,49 +4697,82 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5464.1400000000003</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>297</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>298</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>16</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>13</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
         <v>299</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5620.1400000000003</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>300</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>301</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>302</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5219,10 +5261,15 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -326,6 +326,12 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DIAMICRON 30MG M.R. 30 TAB</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -365,6 +371,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -473,6 +488,15 @@
     <t>55.4400</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
   </si>
   <si>
@@ -482,9 +506,6 @@
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
@@ -518,9 +539,6 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -911,7 +929,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 8:32 PM</t>
+    <t>Thursday, 7 August, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2377,7 +2395,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2387,11 +2405,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2403,14 +2421,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2420,14 +2438,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2436,28 +2454,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>34</v>
@@ -2469,7 +2487,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2482,15 +2500,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>34</v>
@@ -2502,14 +2520,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2519,14 +2537,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2535,14 +2553,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2552,11 +2570,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2568,14 +2586,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2585,14 +2603,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2608,7 +2626,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2618,14 +2636,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2634,14 +2652,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2651,11 +2669,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>34</v>
@@ -2667,14 +2685,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2684,11 +2702,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>34</v>
@@ -2700,14 +2718,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2717,14 +2735,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2733,14 +2751,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2750,14 +2768,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2766,14 +2784,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2783,11 +2801,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2799,14 +2817,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2816,14 +2834,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2832,14 +2850,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2849,14 +2867,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2865,14 +2883,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2882,14 +2900,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2898,14 +2916,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2915,11 +2933,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>34</v>
@@ -2931,14 +2949,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2948,14 +2966,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2971,13 +2989,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2985,10 +3003,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2997,31 +3015,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3030,14 +3048,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3047,14 +3065,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3063,28 +3081,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3096,31 +3114,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3129,14 +3147,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3150,7 +3168,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>34</v>
@@ -3162,14 +3180,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3179,11 +3197,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3195,31 +3213,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3228,14 +3246,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3245,14 +3263,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3261,14 +3279,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3278,14 +3296,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3294,31 +3312,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3327,7 +3345,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3344,11 +3362,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3360,14 +3378,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3377,14 +3395,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3393,14 +3411,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3410,11 +3428,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>34</v>
@@ -3426,14 +3444,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3443,11 +3461,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3459,14 +3477,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3476,14 +3494,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3492,14 +3510,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3509,14 +3527,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3525,14 +3543,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3542,14 +3560,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3558,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3575,14 +3593,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3591,14 +3609,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3608,14 +3626,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3624,14 +3642,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3641,14 +3659,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3657,14 +3675,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3674,14 +3692,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3690,28 +3708,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>34</v>
@@ -3723,14 +3741,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3740,14 +3758,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3756,14 +3774,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3773,14 +3791,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3789,31 +3807,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>227</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3822,14 +3840,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3839,14 +3857,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3855,14 +3873,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3872,14 +3890,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3888,14 +3906,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3905,14 +3923,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3921,14 +3939,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3938,14 +3956,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3954,14 +3972,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3971,11 +3989,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>34</v>
@@ -3987,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4004,11 +4022,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4020,7 +4038,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4037,14 +4055,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4053,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4070,11 +4088,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>34</v>
@@ -4086,14 +4104,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4103,14 +4121,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>254</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4119,14 +4137,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,11 +4154,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>34</v>
@@ -4152,14 +4170,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4169,14 +4187,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4185,14 +4203,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4202,14 +4220,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4218,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,14 +4253,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4251,14 +4269,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4268,14 +4286,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4284,14 +4302,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4301,11 +4319,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>162</v>
+        <v>267</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4317,7 +4335,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4334,14 +4352,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4350,31 +4368,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4383,31 +4401,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4416,31 +4434,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>279</v>
+        <v>49</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4449,14 +4467,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4466,11 +4484,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4482,14 +4500,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4499,14 +4517,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4515,14 +4533,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4532,14 +4550,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>286</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4555,7 +4573,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4572,7 +4590,7 @@
         <v>290</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4588,7 +4606,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4598,11 +4616,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>292</v>
+        <v>99</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4614,14 +4632,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4631,14 +4649,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4647,14 +4665,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4664,14 +4682,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4697,11 +4715,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4713,14 +4731,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4730,49 +4748,148 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5620.1400000000003</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>300</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>301</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>302</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>102</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>13</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>241</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>303</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>12</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>13</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>286</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>304</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>16</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>13</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>305</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5725.9200000000001</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>306</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>307</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>308</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5266,10 +5383,25 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -929,7 +929,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 8:33 PM</t>
+    <t>Thursday, 7 August, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>14.8500</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
   </si>
   <si>
@@ -239,6 +248,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -269,13 +287,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
   </si>
   <si>
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
@@ -350,9 +368,6 @@
     <t>132.00</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>DICLAC 75 ID 30 TAB</t>
   </si>
   <si>
@@ -596,9 +611,6 @@
     <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>120.0000</t>
   </si>
   <si>
@@ -629,6 +641,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -695,6 +716,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>PEPZOL 40MG 14 CAPS</t>
   </si>
   <si>
@@ -812,12 +842,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -827,13 +851,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8438:0</t>
+    <t>8436:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>4:0</t>
   </si>
   <si>
     <t>ZESTRIL 20MG 10 TAB</t>
@@ -893,6 +917,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -905,12 +932,6 @@
     <t xml:space="preserve">شامبو بانتين 190 مللي </t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -929,7 +950,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 8:37 PM</t>
+    <t>Thursday, 7 August, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2032,7 +2053,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2042,11 +2063,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>34</v>
@@ -2058,14 +2079,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2075,14 +2096,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2091,14 +2112,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2115,7 +2136,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2131,7 +2152,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2148,7 +2169,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2164,7 +2185,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2197,7 +2218,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2207,14 +2228,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2223,14 +2244,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2240,11 +2261,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>34</v>
@@ -2256,14 +2277,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2280,7 +2301,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2296,7 +2317,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2306,14 +2327,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2322,14 +2343,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2362,7 +2383,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2372,14 +2393,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2388,14 +2409,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2405,14 +2426,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2445,7 +2466,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2461,7 +2482,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2471,14 +2492,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2487,20 +2508,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2511,7 +2532,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2527,7 +2548,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2541,7 +2562,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>34</v>
@@ -2553,31 +2574,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2586,14 +2607,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2603,14 +2624,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2619,14 +2640,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2636,11 +2657,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2652,14 +2673,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2669,14 +2690,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2692,7 +2713,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,14 +2723,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2718,14 +2739,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2735,11 +2756,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>34</v>
@@ -2751,14 +2772,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2768,11 +2789,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>34</v>
@@ -2784,14 +2805,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,14 +2822,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2834,14 +2855,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2850,14 +2871,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2867,11 +2888,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2900,14 +2921,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2933,14 +2954,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2949,14 +2970,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2966,14 +2987,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2982,14 +3003,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2999,11 +3020,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>34</v>
@@ -3015,7 +3036,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3032,11 +3053,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>34</v>
@@ -3048,14 +3069,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3065,14 +3086,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3088,24 +3109,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3114,28 +3135,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3147,31 +3168,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3187,21 +3208,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3213,14 +3234,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3230,11 +3251,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>34</v>
@@ -3246,14 +3267,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,14 +3284,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3279,14 +3300,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,14 +3317,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3312,31 +3333,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3345,7 +3366,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3362,11 +3383,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3378,31 +3399,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3418,7 +3439,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3435,7 +3456,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3451,7 +3472,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3465,10 +3486,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3477,14 +3498,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3494,14 +3515,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3510,14 +3531,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3527,14 +3548,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3543,14 +3564,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,11 +3581,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3576,14 +3597,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,11 +3614,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>34</v>
@@ -3609,7 +3630,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3626,11 +3647,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3642,14 +3663,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,11 +3680,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>34</v>
@@ -3675,14 +3696,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3692,14 +3713,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3708,14 +3729,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3725,14 +3746,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3741,14 +3762,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,14 +3779,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3774,14 +3795,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3791,14 +3812,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3807,28 +3828,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>34</v>
@@ -3840,14 +3861,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3857,14 +3878,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3873,14 +3894,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3890,14 +3911,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3906,31 +3927,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>233</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3939,14 +3960,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,14 +3977,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3972,14 +3993,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3989,14 +4010,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4005,14 +4026,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,11 +4043,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4038,14 +4059,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,14 +4076,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4071,14 +4092,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,14 +4109,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4104,14 +4125,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,14 +4142,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4137,7 +4158,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4154,14 +4175,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4170,7 +4191,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4187,14 +4208,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4203,14 +4224,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>259</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4220,14 +4241,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4236,14 +4257,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,14 +4274,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4269,14 +4290,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,14 +4307,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4302,14 +4323,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,14 +4340,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4335,14 +4356,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4352,14 +4373,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4375,7 +4396,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>272</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4385,14 +4406,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4401,14 +4422,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4418,11 +4439,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4434,14 +4455,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,14 +4472,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4467,31 +4488,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>279</v>
+        <v>49</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4500,31 +4521,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>27</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4533,28 +4554,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>285</v>
+        <v>47</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4566,31 +4587,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,14 +4620,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4616,11 +4637,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4632,7 +4653,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4649,14 +4670,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>292</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,14 +4686,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4682,14 +4703,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,14 +4719,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4715,11 +4736,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4731,14 +4752,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4748,11 +4769,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>301</v>
+        <v>105</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4764,14 +4785,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4781,14 +4802,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4814,14 +4835,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4830,14 +4851,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4847,49 +4868,181 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5725.9200000000001</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>306</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>307</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>287</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>13</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>308</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>309</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>108</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>13</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>251</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>310</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>12</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>13</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>294</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>311</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>16</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>13</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>312</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5963.1199999999999</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>313</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>314</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>315</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5398,10 +5551,30 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -485,6 +485,18 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -950,7 +962,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 8:38 PM</t>
+    <t>Thursday, 7 August, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3043,7 +3055,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3053,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3086,11 +3098,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>34</v>
@@ -3102,14 +3114,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3119,11 +3131,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>34</v>
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3152,14 +3164,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3168,7 +3180,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3181,15 +3193,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3218,11 +3230,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3234,31 +3246,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3267,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3284,14 +3296,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3300,14 +3312,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3317,14 +3329,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3333,14 +3345,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3350,11 +3362,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>34</v>
@@ -3366,14 +3378,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3383,14 +3395,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3399,7 +3411,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3412,15 +3424,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3432,7 +3444,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3445,15 +3457,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3465,14 +3477,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3482,14 +3494,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3498,7 +3510,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3515,11 +3527,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>34</v>
@@ -3531,14 +3543,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3548,14 +3560,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3564,7 +3576,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3581,11 +3593,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3597,14 +3609,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3614,14 +3626,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3630,14 +3642,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3647,14 +3659,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3663,14 +3675,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3680,14 +3692,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3696,14 +3708,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3713,14 +3725,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3729,7 +3741,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3746,11 +3758,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3762,14 +3774,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3779,14 +3791,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3795,14 +3807,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3812,14 +3824,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3828,14 +3840,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3845,14 +3857,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3861,14 +3873,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3878,14 +3890,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3894,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3911,14 +3923,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3927,31 +3939,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3960,28 +3972,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>34</v>
@@ -3993,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4010,14 +4022,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4026,14 +4038,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4043,11 +4055,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4059,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4076,14 +4088,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>243</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4092,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4109,14 +4121,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>47</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4125,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4142,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4158,14 +4170,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4175,14 +4187,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4191,7 +4203,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4208,11 +4220,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4224,14 +4236,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4241,14 +4253,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4257,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4278,10 +4290,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4290,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4307,14 +4319,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>264</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4323,7 +4335,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4340,11 +4352,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>34</v>
@@ -4356,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4373,14 +4385,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4389,14 +4401,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4406,14 +4418,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4422,14 +4434,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4439,14 +4451,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>105</v>
+        <v>276</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4455,14 +4467,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4472,11 +4484,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4488,14 +4500,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4505,14 +4517,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4521,14 +4533,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>280</v>
+        <v>49</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4538,14 +4550,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>282</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4561,7 +4573,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4571,14 +4583,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4587,14 +4599,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4604,14 +4616,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>263</v>
+        <v>178</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4620,31 +4632,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>287</v>
+        <v>49</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4660,7 +4672,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4670,14 +4682,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4686,14 +4698,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4703,14 +4715,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4726,7 +4738,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4736,11 +4748,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4752,14 +4764,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4769,11 +4781,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>105</v>
+        <v>301</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4785,14 +4797,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4802,14 +4814,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>105</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>269</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4818,7 +4830,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4835,14 +4847,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>27</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4851,7 +4863,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4868,14 +4880,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>211</v>
+        <v>308</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>212</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4884,14 +4896,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4901,11 +4913,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4917,14 +4929,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>108</v>
+        <v>291</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4934,11 +4946,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4950,14 +4962,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4967,11 +4979,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4983,14 +4995,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5000,49 +5012,82 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>315</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>16</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>13</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>316</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>124</v>
       </c>
-      <c t="s" r="Q110" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5963.1199999999999</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>313</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>314</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>315</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>5986.1599999999999</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>317</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>318</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>319</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5571,10 +5616,15 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -551,6 +551,15 @@
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
+    <t>INFINITY TOP HAIR LOTION عرض</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
@@ -746,6 +755,15 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>PIOSETA HAIR OIL</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -809,6 +827,15 @@
     <t>21.00</t>
   </si>
   <si>
+    <t>STARKOPREX 5MG 30 TABS</t>
+  </si>
+  <si>
+    <t>252.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -962,7 +989,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 8:41 PM</t>
+    <t>Thursday, 7 August, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3352,13 +3379,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3369,7 +3396,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3385,7 +3412,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3395,7 +3422,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3418,7 +3445,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3428,14 +3455,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3457,7 +3484,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3490,7 +3517,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3517,7 +3544,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3531,10 +3558,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3543,7 +3570,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3560,11 +3587,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>34</v>
@@ -3583,7 +3610,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3600,7 +3627,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3626,11 +3653,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3642,14 +3669,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3659,14 +3686,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3682,7 +3709,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3699,7 +3726,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3715,7 +3742,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3725,14 +3752,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3748,7 +3775,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3758,14 +3785,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3814,7 +3841,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,14 +3851,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3840,14 +3867,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3857,14 +3884,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3880,7 +3907,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3897,7 +3924,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3913,7 +3940,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3923,14 +3950,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3939,14 +3966,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>65</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,14 +3983,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3979,24 +4006,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4012,17 +4039,17 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4045,7 +4072,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4062,7 +4089,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4078,7 +4105,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4111,7 +4138,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,14 +4148,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4150,7 +4177,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4161,7 +4188,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4177,7 +4204,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>252</v>
+        <v>58</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,14 +4214,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>253</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4210,7 +4237,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4227,7 +4254,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4243,7 +4270,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4253,14 +4280,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4276,7 +4303,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4293,7 +4320,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4309,7 +4336,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,11 +4346,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4342,7 +4369,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4375,7 +4402,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4412,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4408,7 +4435,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>273</v>
+        <v>65</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,14 +4445,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>274</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4441,7 +4468,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4474,7 +4501,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4484,14 +4511,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>105</v>
+        <v>279</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,14 +4527,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>108</v>
+        <v>282</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,14 +4544,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4533,14 +4560,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,14 +4577,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4566,14 +4593,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4583,14 +4610,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>285</v>
+        <v>105</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>286</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4599,14 +4626,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4616,11 +4643,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4632,7 +4659,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4649,14 +4676,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4665,31 +4692,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4698,31 +4725,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>295</v>
+        <v>178</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4731,31 +4758,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>297</v>
+        <v>49</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,14 +4791,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4804,7 +4831,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4814,14 +4841,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4837,7 +4864,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4847,14 +4874,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>273</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,14 +4890,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4880,14 +4907,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4896,14 +4923,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4913,11 +4940,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4929,14 +4956,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4946,14 +4973,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>84</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4962,14 +4989,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,14 +5006,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>256</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4995,7 +5022,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5012,11 +5039,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>218</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5028,14 +5055,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,49 +5072,148 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>322</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>108</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>13</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>261</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>323</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>12</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>13</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>307</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>324</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>16</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>13</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>325</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>124</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>5986.1599999999999</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>317</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>318</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>319</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6434.3199999999997</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>326</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>327</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>328</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5621,10 +5747,25 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -89,6 +89,21 @@
     <t>338.0000</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -113,9 +128,6 @@
     <t>28.7100</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
@@ -149,12 +161,21 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>51.4800</t>
   </si>
   <si>
@@ -248,6 +269,12 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
   </si>
   <si>
@@ -275,6 +302,15 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>CONISTOVA 2 MG 28 F.C.TABS.</t>
   </si>
   <si>
@@ -296,6 +332,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
   </si>
   <si>
@@ -305,6 +350,15 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECANCIT S.R 20 F.C.TAB</t>
   </si>
   <si>
@@ -335,411 +389,459 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DIAMICRON 30MG M.R. 30 TAB</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOLLAR10%30MG CREAM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>101.0000</t>
+  </si>
+  <si>
+    <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>31.5000</t>
+  </si>
+  <si>
+    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>EPIFENAC 75 MG/3ML 3 I.M./I.V. AMP.</t>
+  </si>
+  <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EXARETIC 20 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>EZAMOL-C 20 TAB.</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>EZOGAST 20MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>52.9200</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>INFINITY TOP HAIR LOTION عرض</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LINEZ 600MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALINDA  CREAM</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>290.0000</t>
+  </si>
+  <si>
+    <t>MALINDA SKIN CLEANSER GEL 200ML</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>MELLITOFIX 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>MELOQUIN 4% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>MINOPHYLLINE-N 2.5% 5 I.V. AMP</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>MIRTIMASH 30 MG 30 SCORED F.C. TABS.</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>58.4100</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>OCTOVENT 4MG C.R. 20 TAB</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DIAMICRON 30MG M.R. 30 TAB</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>DICLAC 75 ID 30 TAB</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>101.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EXARETIC 20 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>EZAMOL-C 20 TAB.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>EZOGAST 20MG 14 DELA. REL. CAPS</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
-  </si>
-  <si>
-    <t>0:13</t>
-  </si>
-  <si>
-    <t>288.00</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYPSUM  SYRUP</t>
-  </si>
-  <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>INFINITY TOP HAIR LOTION عرض</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LINEZ 600MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MALINDA  CREAM</t>
-  </si>
-  <si>
-    <t>290.00</t>
-  </si>
-  <si>
-    <t>290.0000</t>
-  </si>
-  <si>
-    <t>MALINDA SKIN CLEANSER GEL 200ML</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>300.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>MELLITOFIX 10MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>MELOQUIN 4% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>MINOPHYLLINE-N 2.5% 5 I.V. AMP</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>PARAGESIC 500MG 5 SUPP.</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -764,6 +866,15 @@
     <t>185.0000</t>
   </si>
   <si>
+    <t>PLAVIX 75MG 28 FILM COATED TAB</t>
+  </si>
+  <si>
+    <t>311.00</t>
+  </si>
+  <si>
+    <t>155.5000</t>
+  </si>
+  <si>
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -890,13 +1001,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8436:0</t>
+    <t>8433:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>14.0000</t>
   </si>
   <si>
     <t>ZESTRIL 20MG 10 TAB</t>
@@ -941,9 +1052,6 @@
     <t>زيت حرير 100مل</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -953,10 +1061,19 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -980,6 +1097,15 @@
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>ليفه</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
@@ -989,7 +1115,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 8:42 PM</t>
+    <t>Thursday, 7 August, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1746,7 +1872,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1755,14 +1881,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1772,14 +1898,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1812,7 +1938,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1828,7 +1954,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1838,14 +1964,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1854,14 +1980,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1878,7 +2004,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1904,14 +2030,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1927,7 +2053,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1937,14 +2063,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1953,14 +2079,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1970,14 +2096,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>49</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1993,7 +2119,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2003,14 +2129,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2019,14 +2145,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2043,7 +2169,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2065,7 +2191,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2076,7 +2202,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2092,7 +2218,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2109,7 +2235,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2131,7 +2257,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2142,7 +2268,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2158,7 +2284,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2168,14 +2294,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2184,14 +2310,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2208,7 +2334,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2224,7 +2350,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2234,14 +2360,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2250,14 +2376,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2267,14 +2393,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2290,7 +2416,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2307,7 +2433,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2323,7 +2449,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2333,14 +2459,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2349,14 +2475,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2366,14 +2492,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2382,14 +2508,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2399,14 +2525,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2415,14 +2541,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2432,14 +2558,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2472,7 +2598,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2488,7 +2614,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2498,14 +2624,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2514,14 +2640,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2531,14 +2657,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2554,7 +2680,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2564,14 +2690,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2580,14 +2706,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2597,14 +2723,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2620,24 +2746,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2646,14 +2772,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2670,7 +2796,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2686,7 +2812,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2696,14 +2822,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2719,7 +2845,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2729,11 +2855,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2745,14 +2871,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2785,7 +2911,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2795,14 +2921,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2818,24 +2944,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2844,14 +2970,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2861,14 +2987,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2877,14 +3003,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2894,14 +3020,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2910,28 +3036,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2943,14 +3069,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2960,14 +3086,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2976,7 +3102,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2993,11 +3119,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3009,7 +3135,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3026,11 +3152,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3042,14 +3168,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3059,14 +3185,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3082,7 +3208,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3092,14 +3218,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3108,14 +3234,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3125,14 +3251,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3141,14 +3267,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3158,14 +3284,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3174,14 +3300,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3191,14 +3317,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3207,14 +3333,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3224,14 +3350,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3240,7 +3366,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3253,18 +3379,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3273,28 +3399,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3306,14 +3432,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3323,14 +3449,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3339,14 +3465,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3356,11 +3482,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3372,7 +3498,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3385,15 +3511,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3405,7 +3531,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3422,14 +3548,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3438,14 +3564,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3455,14 +3581,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3471,14 +3597,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3488,14 +3614,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3504,31 +3630,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3537,14 +3663,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3554,14 +3680,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3570,14 +3696,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3587,14 +3713,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3603,31 +3729,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3636,28 +3762,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3669,14 +3795,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3686,14 +3812,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3702,14 +3828,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3719,14 +3845,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3742,13 +3868,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3775,7 +3901,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3785,14 +3911,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3808,7 +3934,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3818,14 +3944,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3834,14 +3960,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3851,11 +3977,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3867,31 +3993,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3907,7 +4033,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3924,7 +4050,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3940,7 +4066,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3957,7 +4083,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3973,7 +4099,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>56</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3983,14 +4109,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3999,14 +4125,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4016,14 +4142,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4032,31 +4158,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4072,7 +4198,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4089,7 +4215,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4105,7 +4231,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4122,7 +4248,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4138,7 +4264,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4171,24 +4297,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4204,7 +4330,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4214,14 +4340,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4237,7 +4363,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4254,7 +4380,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4270,7 +4396,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4280,14 +4406,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4296,14 +4422,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4313,14 +4439,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4329,14 +4455,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4346,14 +4472,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4362,14 +4488,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4379,14 +4505,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4395,14 +4521,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4412,14 +4538,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4428,14 +4554,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4445,14 +4571,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4461,31 +4587,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4494,14 +4620,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4511,14 +4637,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4527,14 +4653,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4544,14 +4670,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4560,14 +4686,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4577,14 +4703,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4593,7 +4719,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4606,15 +4732,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4626,14 +4752,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4643,14 +4769,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4659,14 +4785,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4676,14 +4802,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>49</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4692,14 +4818,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4709,14 +4835,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>295</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4725,14 +4851,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>47</v>
+        <v>295</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4742,14 +4868,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4758,14 +4884,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4775,14 +4901,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4791,20 +4917,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4831,13 +4957,13 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4845,10 +4971,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4857,28 +4983,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>308</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4897,13 +5023,13 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4914,7 +5040,7 @@
         <v>311</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4930,24 +5056,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>105</v>
+        <v>313</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4956,31 +5082,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>282</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4989,31 +5115,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>317</v>
+        <v>84</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5022,31 +5148,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>218</v>
+        <v>322</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>219</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5055,28 +5181,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>84</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5088,28 +5214,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5121,31 +5247,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5154,66 +5280,660 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>332</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>333</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>51</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>19</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>209</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>334</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>335</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>56</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>19</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>313</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>336</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>337</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>13</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>338</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>340</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>12</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>13</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>341</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>342</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>343</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>13</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>344</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>345</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>346</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>16</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>13</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>98</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>347</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>348</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>349</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>13</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>123</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>325</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>350</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>16</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>13</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>338</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>351</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>12</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>13</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>352</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>353</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>12</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>13</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>331</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>345</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>355</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>12</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>13</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>356</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>357</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>358</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>12</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>13</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>252</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>359</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>337</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>13</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>360</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>361</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>276</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>13</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>298</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>362</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>12</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>13</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>20</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
         <v>124</v>
       </c>
-      <c t="s" r="Q114" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6434.3199999999997</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>326</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>327</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
-        <v>328</v>
-      </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>363</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>364</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>13</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>20</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>365</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>12</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>13</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>344</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>345</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>366</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>16</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>13</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>367</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7457.7950000000001</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>368</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>369</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>370</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5762,10 +6482,100 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -230,9 +239,6 @@
     <t>1:1</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>14.8500</t>
   </si>
   <si>
@@ -1094,6 +1100,12 @@
     <t>55.00</t>
   </si>
   <si>
+    <t xml:space="preserve">عضاضه الجو </t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -1115,7 +1127,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:16 PM</t>
+    <t>Thursday, 7 August, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2086,7 +2098,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2096,14 +2108,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2119,7 +2131,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2129,14 +2141,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>59</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2152,7 +2164,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2162,14 +2174,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2195,14 +2207,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2235,7 +2247,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2251,24 +2263,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2277,28 +2289,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>30</v>
@@ -2310,14 +2322,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2327,11 +2339,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>30</v>
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2360,14 +2372,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2376,14 +2388,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2393,14 +2405,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2416,7 +2428,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2426,14 +2438,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2442,7 +2454,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2459,14 +2471,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2475,14 +2487,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2492,11 +2504,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>30</v>
@@ -2508,14 +2520,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2525,11 +2537,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>30</v>
@@ -2541,14 +2553,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2558,11 +2570,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2574,14 +2586,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2591,14 +2603,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2607,14 +2619,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2624,14 +2636,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2640,14 +2652,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2690,11 +2702,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>30</v>
@@ -2706,14 +2718,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2723,11 +2735,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>30</v>
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2756,14 +2768,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2779,7 +2791,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2789,14 +2801,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2862,7 +2874,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2878,7 +2890,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2888,11 +2900,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2904,14 +2916,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2921,14 +2933,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2944,13 +2956,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2958,7 +2970,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2970,28 +2982,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -3003,14 +3015,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3020,14 +3032,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3036,28 +3048,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3069,28 +3081,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3102,7 +3114,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3119,11 +3131,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3152,11 +3164,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3168,14 +3180,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3185,11 +3197,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3218,11 +3230,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3234,7 +3246,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3251,14 +3263,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3274,7 +3286,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3284,11 +3296,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>30</v>
@@ -3300,14 +3312,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3317,14 +3329,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3333,14 +3345,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3350,14 +3362,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3373,7 +3385,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3383,11 +3395,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -3399,14 +3411,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3416,14 +3428,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3432,14 +3444,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3449,14 +3461,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3465,14 +3477,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3482,14 +3494,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3498,14 +3510,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3515,11 +3527,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3531,14 +3543,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3548,14 +3560,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3564,14 +3576,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3581,14 +3593,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3597,14 +3609,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3614,14 +3626,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3630,14 +3642,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3647,11 +3659,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>30</v>
@@ -3663,14 +3675,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3680,11 +3692,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>30</v>
@@ -3696,14 +3708,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3713,14 +3725,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3742,15 +3754,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3762,14 +3774,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3779,11 +3791,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3795,31 +3807,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3835,7 +3847,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3845,14 +3857,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3861,28 +3873,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3894,31 +3906,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3927,14 +3939,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3944,7 +3956,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3967,7 +3979,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3977,14 +3989,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3993,7 +4005,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4006,15 +4018,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4026,7 +4038,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4039,15 +4051,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4059,14 +4071,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4076,14 +4088,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4092,14 +4104,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4109,11 +4121,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -4125,14 +4137,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4142,14 +4154,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4158,7 +4170,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4175,7 +4187,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4198,7 +4210,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4208,14 +4220,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4224,14 +4236,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4241,11 +4253,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>30</v>
@@ -4257,14 +4269,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4274,14 +4286,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4290,14 +4302,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4307,14 +4319,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>132</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4323,14 +4335,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4340,14 +4352,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4356,7 +4368,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4373,11 +4385,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4389,7 +4401,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4406,14 +4418,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4429,7 +4441,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4439,11 +4451,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>30</v>
@@ -4455,14 +4467,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4472,14 +4484,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>145</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4488,14 +4500,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4505,14 +4517,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4521,14 +4533,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4538,14 +4550,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4561,7 +4573,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4571,14 +4583,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4587,31 +4599,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>272</v>
+        <v>75</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4627,21 +4639,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>30</v>
@@ -4660,7 +4672,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4670,14 +4682,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4686,14 +4698,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4703,11 +4715,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4719,7 +4731,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4732,15 +4744,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4752,31 +4764,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4785,14 +4797,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4802,14 +4814,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>289</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>290</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4818,14 +4830,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4835,14 +4847,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>292</v>
+        <v>145</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>51</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4851,14 +4863,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4868,14 +4880,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>117</v>
+        <v>294</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4884,14 +4896,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4901,14 +4913,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>298</v>
+        <v>119</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4917,7 +4929,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4934,11 +4946,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4950,14 +4962,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4967,14 +4979,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4983,14 +4995,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>307</v>
+        <v>51</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5000,14 +5012,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>118</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5016,14 +5028,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5037,10 +5049,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>311</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5049,14 +5061,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5066,11 +5078,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>30</v>
@@ -5082,7 +5094,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5099,11 +5111,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>30</v>
@@ -5115,14 +5127,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>319</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5132,14 +5144,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>84</v>
+        <v>318</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5148,14 +5160,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5165,14 +5177,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>322</v>
+        <v>86</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5181,14 +5193,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5198,14 +5210,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>123</v>
+        <v>324</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>325</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5221,7 +5233,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5231,11 +5243,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5247,14 +5259,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>56</v>
+        <v>278</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5264,14 +5276,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5287,7 +5299,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>330</v>
+        <v>59</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5297,14 +5309,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>319</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5313,14 +5325,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>51</v>
+        <v>332</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5330,14 +5342,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>209</v>
+        <v>333</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>334</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5353,7 +5365,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5363,14 +5375,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>211</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5379,31 +5391,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>337</v>
+        <v>59</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5412,14 +5424,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5429,14 +5441,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5452,7 +5464,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>343</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5462,14 +5474,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5478,14 +5490,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>345</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5495,7 +5507,7 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
@@ -5518,7 +5530,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>349</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5528,11 +5540,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5551,7 +5563,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>351</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5561,11 +5573,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>338</v>
+        <v>125</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5577,14 +5589,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5594,14 +5606,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>241</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5627,14 +5639,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>345</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>354</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5660,14 +5672,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>32</v>
+        <v>356</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5676,7 +5688,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5693,14 +5705,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>252</v>
+        <v>358</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>253</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5709,14 +5721,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>337</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5726,11 +5738,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>360</v>
+        <v>254</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5749,7 +5761,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5759,11 +5771,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>299</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5775,14 +5787,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>364</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5808,14 +5820,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5825,11 +5837,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>21</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5841,7 +5853,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5858,11 +5870,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>344</v>
+        <v>20</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5874,14 +5886,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>368</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5891,49 +5903,115 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>367</v>
+        <v>20</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7457.7950000000001</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>368</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
         <v>369</v>
       </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>12</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>13</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>346</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>347</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
         <v>370</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>16</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>13</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>371</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>7517.7950000000001</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>372</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>373</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>374</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6572,10 +6650,20 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -962,6 +962,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>90.0900</t>
+  </si>
+  <si>
     <t>UNITREXATE 50 MG 5 I.M. I.V. VIALS</t>
   </si>
   <si>
@@ -1127,7 +1136,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:19 PM</t>
+    <t>Thursday, 7 August, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5134,7 +5143,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5151,7 +5160,7 @@
         <v>319</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5167,7 +5176,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>321</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5177,14 +5186,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>86</v>
+        <v>321</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>322</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5200,7 +5209,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5210,14 +5219,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>324</v>
+        <v>86</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>325</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5233,7 +5242,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5243,14 +5252,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>125</v>
+        <v>327</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5259,14 +5268,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5276,11 +5285,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5292,14 +5301,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5309,14 +5318,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5325,14 +5334,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>332</v>
+        <v>59</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5342,14 +5351,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>321</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5358,14 +5367,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>51</v>
+        <v>335</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5375,14 +5384,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>211</v>
+        <v>336</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5391,14 +5400,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5408,14 +5417,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>211</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5424,31 +5433,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>339</v>
+        <v>59</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5457,14 +5466,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5478,10 +5487,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5490,14 +5499,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>345</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5511,10 +5520,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5523,14 +5532,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>348</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5540,11 +5549,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>100</v>
+        <v>349</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5556,14 +5565,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>351</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5573,11 +5582,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5589,14 +5598,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>354</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5606,11 +5615,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>340</v>
+        <v>125</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5622,14 +5631,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5639,14 +5648,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>243</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5655,7 +5664,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5672,14 +5681,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>347</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>356</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5688,7 +5697,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5705,14 +5714,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q126" s="12">
         <v>359</v>
-      </c>
-      <c t="s" r="Q126" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5738,14 +5747,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>254</v>
+        <v>361</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>255</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5754,14 +5763,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>339</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5771,11 +5780,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5787,14 +5796,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5804,11 +5813,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>20</v>
+        <v>365</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5820,14 +5829,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5837,11 +5846,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5853,14 +5862,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5870,11 +5879,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>21</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5886,14 +5895,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>368</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5919,14 +5928,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>12</v>
+        <v>371</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5936,11 +5945,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>346</v>
+        <v>20</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>347</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5952,14 +5961,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5969,49 +5978,82 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>373</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>16</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>13</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>374</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
         <v>143</v>
       </c>
-      <c t="s" r="Q134" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>7517.7950000000001</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>372</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
-        <v>373</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
-        <v>374</v>
-      </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7607.8850000000002</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>375</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>376</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>377</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6660,10 +6702,15 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -1136,7 +1136,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:22 PM</t>
+    <t>Thursday, 7 August, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>28.6000</t>
   </si>
   <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -233,6 +242,15 @@
     <t>218.0000</t>
   </si>
   <si>
+    <t>BACLOFEN 10 MG 20 TABS. B.P.2011</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -278,9 +296,6 @@
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
   </si>
   <si>
@@ -470,6 +485,15 @@
     <t>101.0000</t>
   </si>
   <si>
+    <t>DULOXEPRIN 60MG 28 CAPSULES</t>
+  </si>
+  <si>
+    <t>214.00</t>
+  </si>
+  <si>
+    <t>214.0000</t>
+  </si>
+  <si>
     <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
   </si>
   <si>
@@ -629,6 +653,12 @@
     <t>12.00</t>
   </si>
   <si>
+    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">GYPSUM  SYRUP</t>
   </si>
   <si>
@@ -1136,7 +1166,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:23 PM</t>
+    <t>Thursday, 7 August, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2239,7 +2269,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2249,14 +2279,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2265,14 +2295,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2289,7 +2319,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2305,24 +2335,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2338,7 +2368,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2355,7 +2385,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2377,15 +2407,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>30</v>
@@ -2397,14 +2427,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2414,14 +2444,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2430,14 +2460,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2447,7 +2477,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2470,7 +2500,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2480,11 +2510,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2496,14 +2526,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2513,11 +2543,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>30</v>
@@ -2529,14 +2559,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2546,14 +2576,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2562,14 +2592,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2579,11 +2609,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2595,14 +2625,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2612,11 +2642,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -2628,14 +2658,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2645,14 +2675,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2661,7 +2691,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2678,14 +2708,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2694,14 +2724,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2711,14 +2741,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2727,14 +2757,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2744,14 +2774,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2760,14 +2790,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2777,11 +2807,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2793,14 +2823,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2810,14 +2840,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2833,7 +2863,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2843,11 +2873,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2859,14 +2889,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2876,14 +2906,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2892,14 +2922,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2909,14 +2939,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2942,14 +2972,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2958,14 +2988,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2975,14 +3005,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2991,20 +3021,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -3015,7 +3045,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3031,7 +3061,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3045,7 +3075,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -3057,31 +3087,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3090,31 +3120,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3123,14 +3153,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3140,11 +3170,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3156,28 +3186,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3189,14 +3219,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3206,11 +3236,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3222,14 +3252,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3239,11 +3269,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3255,14 +3285,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3272,11 +3302,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3288,7 +3318,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3305,14 +3335,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3321,14 +3351,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3338,14 +3368,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3354,14 +3384,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3371,11 +3401,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3387,14 +3417,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3404,11 +3434,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -3420,14 +3450,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3437,11 +3467,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -3460,7 +3490,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3493,7 +3523,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3503,14 +3533,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3519,14 +3549,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3536,14 +3566,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3552,14 +3582,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3569,11 +3599,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3585,14 +3615,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3602,14 +3632,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3618,14 +3648,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3635,14 +3665,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3651,14 +3681,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3668,14 +3698,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3684,14 +3714,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3701,11 +3731,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>30</v>
@@ -3717,14 +3747,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3734,14 +3764,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3750,14 +3780,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3767,14 +3797,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3790,24 +3820,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3816,31 +3846,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3849,14 +3879,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3866,14 +3896,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3882,7 +3912,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3899,11 +3929,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3915,7 +3945,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3932,11 +3962,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3948,31 +3978,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3981,14 +4011,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3998,11 +4028,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -4014,14 +4044,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4031,11 +4061,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4047,7 +4077,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4064,11 +4094,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4080,14 +4110,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4097,14 +4127,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4113,14 +4143,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4130,11 +4160,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -4146,14 +4176,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4163,14 +4193,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4179,7 +4209,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4192,15 +4222,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4212,7 +4242,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4229,11 +4259,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4245,14 +4275,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4262,11 +4292,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>30</v>
@@ -4278,7 +4308,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4295,11 +4325,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>30</v>
@@ -4311,14 +4341,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4328,11 +4358,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4344,14 +4374,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4361,14 +4391,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4377,14 +4407,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4394,14 +4424,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4410,14 +4440,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4427,14 +4457,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4443,7 +4473,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4460,14 +4490,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4476,14 +4506,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4493,11 +4523,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>30</v>
@@ -4509,14 +4539,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4526,14 +4556,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4542,14 +4572,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4559,14 +4589,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4575,14 +4605,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4592,14 +4622,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4608,14 +4638,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4625,14 +4655,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>150</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4641,31 +4671,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>274</v>
+        <v>59</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4681,7 +4711,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4691,11 +4721,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>30</v>
@@ -4707,14 +4737,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4724,14 +4754,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4740,14 +4770,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4757,14 +4787,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4773,14 +4803,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4790,14 +4820,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4806,14 +4836,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4823,11 +4853,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>30</v>
@@ -4839,14 +4869,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4856,14 +4886,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>145</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>292</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4872,7 +4902,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4889,14 +4919,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4905,31 +4935,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4938,14 +4968,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4955,14 +4985,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4971,14 +5001,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4988,14 +5018,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>303</v>
+        <v>150</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5004,14 +5034,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5021,14 +5051,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5037,14 +5067,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5054,14 +5084,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5070,14 +5100,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5087,14 +5117,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5103,7 +5133,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5120,14 +5150,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5136,14 +5166,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5153,14 +5183,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5169,14 +5199,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>319</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5186,14 +5216,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>322</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5202,14 +5232,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5219,14 +5249,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>86</v>
+        <v>322</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5235,14 +5265,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5252,11 +5282,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>30</v>
@@ -5268,14 +5298,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5285,14 +5315,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>125</v>
+        <v>328</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5301,14 +5331,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5318,14 +5348,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5334,14 +5364,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>59</v>
+        <v>334</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5351,14 +5381,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5367,14 +5397,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>335</v>
+        <v>47</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5384,14 +5414,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>324</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5400,14 +5430,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5417,11 +5447,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5433,14 +5463,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5450,14 +5480,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5466,31 +5496,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>342</v>
+        <v>59</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>343</v>
+        <v>175</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5499,20 +5529,20 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>345</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5520,10 +5550,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>32</v>
+        <v>334</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5532,28 +5562,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>348</v>
+        <v>51</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>349</v>
+        <v>221</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5565,31 +5595,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5598,14 +5628,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5615,11 +5645,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>125</v>
+        <v>353</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5638,7 +5668,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5648,14 +5678,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5664,14 +5694,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5681,14 +5711,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>243</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5697,14 +5727,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5714,14 +5744,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>336</v>
+        <v>105</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>359</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5730,14 +5760,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>364</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5747,14 +5777,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>361</v>
+        <v>130</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5763,14 +5793,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5780,11 +5810,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>254</v>
+        <v>353</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>255</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5796,14 +5826,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>342</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5813,14 +5843,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5829,14 +5859,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>367</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5846,14 +5876,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>21</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>369</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5862,14 +5892,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5879,14 +5909,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>300</v>
+        <v>371</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>301</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5895,7 +5925,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5912,11 +5942,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5928,14 +5958,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5945,11 +5975,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5961,14 +5991,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>12</v>
+        <v>377</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5978,11 +6008,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>350</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5994,14 +6024,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6011,49 +6041,181 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>7607.8850000000002</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>375</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>376</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
-        <v>377</v>
-      </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>379</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>12</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>13</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>20</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>380</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>381</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>13</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>20</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>382</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>12</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>13</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>359</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>360</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>383</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>16</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>13</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>384</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="P140" s="13">
+        <v>8202.8850000000002</v>
+      </c>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="14">
+        <v>385</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c t="s" r="G141" s="15">
+        <v>386</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c t="s" r="K141" s="17">
+        <v>387</v>
+      </c>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="677">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6707,10 +6869,30 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="K141:Q141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -1166,7 +1166,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:25 PM</t>
+    <t>Thursday, 7 August, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -581,6 +581,12 @@
     <t>0:6</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
   </si>
   <si>
@@ -699,9 +705,6 @@
   </si>
   <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
   </si>
   <si>
     <t>LINEZ 600MG 10 F.C.TAB.</t>
@@ -3655,7 +3658,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3665,14 +3668,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3681,14 +3684,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3698,11 +3701,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3731,14 +3734,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>71</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3764,14 +3767,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3780,14 +3783,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3797,14 +3800,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3813,14 +3816,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3830,11 +3833,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>30</v>
@@ -3846,14 +3849,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3863,11 +3866,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>30</v>
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3896,14 +3899,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3919,7 +3922,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3929,11 +3932,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3952,21 +3955,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3978,14 +3981,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3995,11 +3998,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -4011,31 +4014,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4051,7 +4054,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4061,14 +4064,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4077,28 +4080,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4110,31 +4113,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4143,14 +4146,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4160,7 +4163,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4183,7 +4186,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4193,14 +4196,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4209,7 +4212,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4222,15 +4225,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4242,7 +4245,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4255,15 +4258,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4275,14 +4278,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4292,14 +4295,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4308,7 +4311,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4325,11 +4328,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>30</v>
@@ -4341,14 +4344,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4358,14 +4361,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4374,7 +4377,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4391,11 +4394,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4407,14 +4410,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4424,14 +4427,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4440,14 +4443,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4457,11 +4460,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>30</v>
@@ -4473,14 +4476,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4490,14 +4493,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4506,14 +4509,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4523,14 +4526,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4539,14 +4542,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4556,14 +4559,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4572,7 +4575,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4589,11 +4592,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4605,7 +4608,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4622,14 +4625,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4638,14 +4641,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4655,11 +4658,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>53</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>30</v>
@@ -4678,7 +4681,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4688,14 +4691,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4704,14 +4707,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4721,14 +4724,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4737,14 +4740,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4754,14 +4757,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4770,14 +4773,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4787,14 +4790,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4803,31 +4806,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>187</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4836,28 +4839,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>30</v>
@@ -4869,14 +4872,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>288</v>
+        <v>36</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4886,14 +4889,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>175</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4902,14 +4905,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4919,11 +4922,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4935,7 +4938,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4948,15 +4951,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4968,31 +4971,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5001,14 +5004,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5018,14 +5021,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>150</v>
+        <v>299</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>302</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5034,14 +5037,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5051,14 +5054,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>304</v>
+        <v>150</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>51</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5067,14 +5070,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5084,14 +5087,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5100,14 +5103,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5117,14 +5120,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5133,7 +5136,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5150,11 +5153,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5166,14 +5169,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5183,14 +5186,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5199,14 +5202,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>319</v>
+        <v>51</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5216,14 +5219,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5232,14 +5235,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5249,14 +5252,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>323</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5265,14 +5268,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5282,11 +5285,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>30</v>
@@ -5298,14 +5301,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5315,14 +5318,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5331,14 +5334,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5348,14 +5351,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5364,14 +5367,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>334</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5381,14 +5384,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>92</v>
+        <v>332</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5397,14 +5400,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>47</v>
+        <v>335</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5414,14 +5417,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>337</v>
+        <v>92</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5430,14 +5433,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5447,14 +5450,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5463,14 +5466,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5480,11 +5483,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>289</v>
+        <v>130</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5503,7 +5506,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>59</v>
+        <v>289</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5513,14 +5516,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5529,14 +5532,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>345</v>
+        <v>59</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5546,14 +5549,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>334</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5562,14 +5565,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>51</v>
+        <v>346</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5579,14 +5582,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>221</v>
+        <v>347</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>335</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5595,14 +5598,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5612,14 +5615,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>223</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5635,24 +5638,24 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>352</v>
+        <v>59</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5661,14 +5664,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>353</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5678,14 +5681,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5694,14 +5697,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>358</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5711,14 +5714,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5727,14 +5730,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>359</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5744,11 +5747,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>105</v>
+        <v>360</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5760,14 +5763,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>364</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5777,11 +5780,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5793,14 +5796,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>365</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5810,11 +5813,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>353</v>
+        <v>130</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5833,7 +5836,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5843,14 +5846,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>253</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5859,7 +5862,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5876,14 +5879,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>360</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>369</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5892,7 +5895,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5909,14 +5912,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>32</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5925,7 +5928,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5942,14 +5945,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>264</v>
+        <v>372</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>265</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5965,7 +5968,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>352</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5975,11 +5978,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>375</v>
+        <v>265</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5991,14 +5994,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6008,11 +6011,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6024,14 +6027,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>288</v>
+        <v>378</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6041,11 +6044,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>311</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6064,7 +6067,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6074,11 +6077,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>21</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6097,7 +6100,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>381</v>
+        <v>12</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6123,14 +6126,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>12</v>
+        <v>382</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6140,11 +6143,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>359</v>
+        <v>20</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>360</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6163,7 +6166,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6173,49 +6176,82 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
+        <v>361</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>384</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>16</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>13</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>385</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
         <v>148</v>
       </c>
-      <c t="s" r="Q139" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" ht="24.75" customHeight="1">
-      <c r="P140" s="13">
-        <v>8202.8850000000002</v>
-      </c>
-      <c r="Q140" s="13"/>
-    </row>
-    <row r="141" ht="16.5" customHeight="1">
-      <c t="s" r="A141" s="14">
-        <v>385</v>
-      </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c t="s" r="G141" s="15">
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>8218.7250000000004</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
         <v>386</v>
       </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="16"/>
-      <c t="s" r="K141" s="17">
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
         <v>387</v>
       </c>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
-      <c r="Q141" s="17"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>388</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="677">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6889,10 +6925,15 @@
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:M139"/>
     <mergeCell ref="N139:O139"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="K141:Q141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
@@ -563,9 +572,6 @@
     <t>37.00</t>
   </si>
   <si>
-    <t>37.0000</t>
-  </si>
-  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -596,6 +602,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
     <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
   </si>
   <si>
@@ -704,6 +719,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>LEVANIC 500MG 7 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -857,9 +881,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>69.0000</t>
   </si>
   <si>
@@ -1037,6 +1058,9 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -1169,7 +1193,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:26 PM</t>
+    <t>Thursday, 7 August, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1975,7 +1999,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1985,11 +2009,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>30</v>
@@ -2001,14 +2025,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2018,11 +2042,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>30</v>
@@ -2034,14 +2058,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2074,7 +2098,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2084,14 +2108,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2100,14 +2124,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2117,14 +2141,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2133,14 +2157,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2173,7 +2197,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2183,14 +2207,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2206,7 +2230,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2216,14 +2240,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2239,7 +2263,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2249,14 +2273,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2265,14 +2289,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2289,7 +2313,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2305,7 +2329,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2315,14 +2339,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2331,14 +2355,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2355,7 +2379,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2404,24 +2428,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2437,17 +2461,17 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2470,7 +2494,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2480,11 +2504,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>30</v>
@@ -2496,14 +2520,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2513,14 +2537,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2529,14 +2553,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2546,14 +2570,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2562,14 +2586,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2579,14 +2603,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2619,7 +2643,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2635,7 +2659,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2668,7 +2692,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2701,7 +2725,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2734,7 +2758,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2744,14 +2768,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2760,14 +2784,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2784,7 +2808,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2800,7 +2824,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2817,7 +2841,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2833,7 +2857,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2866,7 +2890,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2899,7 +2923,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2909,14 +2933,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2925,14 +2949,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2942,14 +2966,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2958,14 +2982,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2975,14 +2999,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2998,7 +3022,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3012,10 +3036,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3024,14 +3048,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3041,11 +3065,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -3057,14 +3081,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3078,10 +3102,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3090,28 +3114,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -3130,13 +3154,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -3163,7 +3187,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3180,7 +3204,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3196,13 +3220,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3229,13 +3253,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3262,7 +3286,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3295,7 +3319,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3328,7 +3352,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3361,7 +3385,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3371,11 +3395,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3387,14 +3411,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3404,11 +3428,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3437,14 +3461,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3453,14 +3477,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3470,11 +3494,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -3486,14 +3510,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3503,14 +3527,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3526,7 +3550,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3536,14 +3560,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3552,14 +3576,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3569,7 +3593,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3592,7 +3616,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3609,7 +3633,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3625,7 +3649,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3635,14 +3659,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>189</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3651,14 +3675,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3668,14 +3692,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>191</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>87</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3691,7 +3715,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3701,14 +3725,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3717,14 +3741,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3734,11 +3758,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3750,14 +3774,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3767,11 +3791,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>30</v>
@@ -3783,14 +3807,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3800,14 +3824,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3816,14 +3840,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3833,11 +3857,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>30</v>
@@ -3849,14 +3873,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3866,14 +3890,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3882,7 +3906,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3899,11 +3923,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3915,14 +3939,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3932,14 +3956,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3955,7 +3979,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3965,14 +3989,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3981,7 +4005,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3994,15 +4018,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -4014,28 +4038,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -4047,31 +4071,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4087,21 +4111,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4113,31 +4137,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4146,14 +4170,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4163,14 +4187,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4179,31 +4203,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4212,14 +4236,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4229,14 +4253,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4245,28 +4269,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4278,14 +4302,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4295,14 +4319,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4311,14 +4335,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4328,14 +4352,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4344,31 +4368,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4377,7 +4401,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4394,11 +4418,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4410,14 +4434,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4427,14 +4451,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4450,7 +4474,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4483,7 +4507,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4500,7 +4524,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4516,7 +4540,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4526,11 +4550,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4542,14 +4566,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4559,11 +4583,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>139</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>30</v>
@@ -4575,14 +4599,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4592,14 +4616,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4608,7 +4632,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4625,11 +4649,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4641,14 +4665,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4658,7 +4682,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4681,7 +4705,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4691,14 +4715,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4707,14 +4731,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4724,14 +4748,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4740,14 +4764,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4757,11 +4781,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>30</v>
@@ -4773,14 +4797,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4790,14 +4814,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>254</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4813,7 +4837,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4830,7 +4854,7 @@
         <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4846,21 +4870,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>285</v>
+        <v>84</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>187</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>30</v>
@@ -4872,14 +4896,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4889,14 +4913,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4905,14 +4929,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>289</v>
+        <v>84</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4922,14 +4946,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4938,31 +4962,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>293</v>
+        <v>189</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4971,31 +4995,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>178</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5004,14 +5028,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5021,14 +5045,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5037,14 +5061,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5054,14 +5078,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>303</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5070,7 +5094,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5083,18 +5107,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5103,14 +5127,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>308</v>
+        <v>30</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5120,11 +5144,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>124</v>
+        <v>306</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>30</v>
@@ -5136,14 +5160,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5153,14 +5177,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>311</v>
+        <v>153</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5169,14 +5193,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5186,14 +5210,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5202,14 +5226,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>51</v>
+        <v>315</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5219,11 +5243,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>317</v>
+        <v>127</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>30</v>
@@ -5235,14 +5259,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>320</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5252,11 +5276,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>125</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5268,14 +5292,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5285,14 +5309,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5301,14 +5325,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5318,11 +5342,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>30</v>
@@ -5334,14 +5358,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5351,14 +5375,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>330</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5367,14 +5391,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5384,11 +5408,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>30</v>
@@ -5400,14 +5424,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>335</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5417,14 +5441,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>92</v>
+        <v>333</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5433,14 +5457,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5450,14 +5474,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5466,14 +5490,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5483,14 +5507,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>130</v>
+        <v>339</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5499,14 +5523,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5516,14 +5540,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5532,14 +5556,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5549,14 +5573,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>175</v>
+        <v>345</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5565,14 +5589,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>346</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5582,14 +5606,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>347</v>
+        <v>133</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
         <v>348</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>335</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5605,7 +5629,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5615,14 +5639,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5631,14 +5655,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>59</v>
+        <v>296</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5648,14 +5672,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5664,31 +5688,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>353</v>
+        <v>62</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>354</v>
+        <v>178</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5697,31 +5721,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>32</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5730,28 +5754,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>359</v>
+        <v>54</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>360</v>
+        <v>228</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5763,31 +5787,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>105</v>
+        <v>333</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5796,14 +5820,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5813,11 +5837,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>130</v>
+        <v>362</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5829,14 +5853,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5846,14 +5870,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5862,14 +5886,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>367</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5883,10 +5907,10 @@
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5895,14 +5919,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5912,14 +5936,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>347</v>
+        <v>108</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>370</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5928,14 +5952,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>373</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5945,14 +5969,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>372</v>
+        <v>133</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5968,7 +5992,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5978,11 +6002,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>265</v>
+        <v>362</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>266</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -6001,7 +6025,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>353</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6015,10 +6039,10 @@
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6034,7 +6058,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>378</v>
+        <v>12</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6044,14 +6068,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>21</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6067,7 +6091,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6077,14 +6101,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6093,7 +6117,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6110,11 +6134,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6126,14 +6150,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6143,11 +6167,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6159,14 +6183,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>12</v>
+        <v>386</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6176,11 +6200,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>361</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6192,14 +6216,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6209,49 +6233,181 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>385</v>
+        <v>318</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
-      <c r="P141" s="13">
-        <v>8218.7250000000004</v>
-      </c>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s="14">
-        <v>386</v>
-      </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c t="s" r="G142" s="15">
-        <v>387</v>
-      </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="16"/>
-      <c t="s" r="K142" s="17">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
         <v>388</v>
       </c>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="17"/>
-      <c r="Q142" s="17"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>12</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>13</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>20</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>389</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>390</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>13</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>20</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>391</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>12</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>13</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>368</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>369</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>392</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>16</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>13</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>393</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="P145" s="13">
+        <v>8421.9750000000004</v>
+      </c>
+      <c r="Q145" s="13"/>
+    </row>
+    <row r="146" ht="16.5" customHeight="1">
+      <c t="s" r="A146" s="14">
+        <v>394</v>
+      </c>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c t="s" r="G146" s="15">
+        <v>395</v>
+      </c>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="16"/>
+      <c t="s" r="K146" s="17">
+        <v>396</v>
+      </c>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+      <c r="N146" s="17"/>
+      <c r="O146" s="17"/>
+      <c r="P146" s="17"/>
+      <c r="Q146" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="682">
+  <mergeCells count="702">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6930,10 +7086,30 @@
     <mergeCell ref="H140:K140"/>
     <mergeCell ref="L140:M140"/>
     <mergeCell ref="N140:O140"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="P145:Q145"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="K146:Q146"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -1127,6 +1127,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>زيت دابر املا 90 مل</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">زيت شعر املا 180 مل </t>
   </si>
   <si>
@@ -1163,9 +1169,6 @@
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">عضاضه الجو </t>
   </si>
   <si>
@@ -1193,7 +1196,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:29 PM</t>
+    <t>Thursday, 7 August, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5959,7 +5962,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>373</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5969,11 +5972,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>133</v>
+        <v>373</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>348</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5992,7 +5995,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>16</v>
+        <v>375</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -6002,11 +6005,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>362</v>
+        <v>133</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -6018,14 +6021,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6035,14 +6038,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6068,14 +6071,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>369</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>378</v>
+        <v>54</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6101,14 +6104,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>32</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6117,7 +6120,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6134,14 +6137,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>273</v>
+        <v>382</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>274</v>
+        <v>383</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6150,14 +6153,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>361</v>
+        <v>12</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6167,11 +6170,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>384</v>
+        <v>273</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>103</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6190,7 +6193,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6200,11 +6203,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6216,14 +6219,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6233,11 +6236,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>319</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6256,7 +6259,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6266,11 +6269,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>21</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6289,7 +6292,7 @@
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>390</v>
+        <v>12</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6315,14 +6318,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>12</v>
+        <v>391</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6332,11 +6335,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>368</v>
+        <v>20</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>369</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6355,7 +6358,7 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6365,49 +6368,82 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
+        <v>369</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>393</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>16</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>13</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>394</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
         <v>151</v>
       </c>
-      <c t="s" r="Q144" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" ht="24.75" customHeight="1">
-      <c r="P145" s="13">
-        <v>8421.9750000000004</v>
-      </c>
-      <c r="Q145" s="13"/>
-    </row>
-    <row r="146" ht="16.5" customHeight="1">
-      <c t="s" r="A146" s="14">
-        <v>394</v>
-      </c>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c t="s" r="G146" s="15">
+      <c t="s" r="Q145" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="P146" s="13">
+        <v>8476.9750000000004</v>
+      </c>
+      <c r="Q146" s="13"/>
+    </row>
+    <row r="147" ht="16.5" customHeight="1">
+      <c t="s" r="A147" s="14">
         <v>395</v>
       </c>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="16"/>
-      <c t="s" r="K146" s="17">
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c t="s" r="G147" s="15">
         <v>396</v>
       </c>
-      <c r="L146" s="17"/>
-      <c r="M146" s="17"/>
-      <c r="N146" s="17"/>
-      <c r="O146" s="17"/>
-      <c r="P146" s="17"/>
-      <c r="Q146" s="17"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c t="s" r="K147" s="17">
+        <v>397</v>
+      </c>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="702">
+  <mergeCells count="707">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7106,10 +7142,15 @@
     <mergeCell ref="H144:K144"/>
     <mergeCell ref="L144:M144"/>
     <mergeCell ref="N144:O144"/>
-    <mergeCell ref="P145:Q145"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="G146:I146"/>
-    <mergeCell ref="K146:Q146"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="K147:Q147"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -1196,7 +1196,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:31 PM</t>
+    <t>Thursday, 7 August, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -692,6 +692,12 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>HERBANA 30CAPS</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>HISTAZINE-1 10MG 20 TAB</t>
   </si>
   <si>
@@ -1196,7 +1202,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:32 PM</t>
+    <t>Thursday, 7 August, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4147,21 +4153,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -4180,7 +4186,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4190,14 +4196,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4206,28 +4212,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4239,31 +4245,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4272,14 +4278,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4289,14 +4295,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4305,14 +4311,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4322,14 +4328,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4338,14 +4344,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4355,14 +4361,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4371,7 +4377,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4384,15 +4390,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4404,7 +4410,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4417,15 +4423,15 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4437,14 +4443,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4454,14 +4460,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4470,7 +4476,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4487,11 +4493,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>30</v>
@@ -4503,14 +4509,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4520,14 +4526,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4536,7 +4542,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4553,7 +4559,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4576,7 +4582,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4586,14 +4592,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4602,14 +4608,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4619,11 +4625,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>30</v>
@@ -4635,14 +4641,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4652,14 +4658,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4668,14 +4674,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4685,14 +4691,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4701,14 +4707,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4718,14 +4724,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>142</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4734,7 +4740,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4751,11 +4757,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4767,7 +4773,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4784,14 +4790,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4807,7 +4813,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4817,11 +4823,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>56</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>30</v>
@@ -4833,14 +4839,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4850,14 +4856,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>153</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4866,14 +4872,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4883,14 +4889,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4899,14 +4905,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>288</v>
+        <v>84</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4916,14 +4922,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4939,7 +4945,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>84</v>
+        <v>290</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4949,14 +4955,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4972,24 +4978,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>292</v>
+        <v>84</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -5005,21 +5011,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>30</v>
@@ -5038,7 +5044,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5048,14 +5054,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>178</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5064,14 +5070,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5081,11 +5087,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5097,7 +5103,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5110,15 +5116,15 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5130,31 +5136,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5163,14 +5169,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5180,14 +5186,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>153</v>
+        <v>308</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>310</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5196,14 +5202,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5213,14 +5219,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>312</v>
+        <v>153</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>54</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5229,14 +5235,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5246,14 +5252,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>127</v>
+        <v>314</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5262,14 +5268,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>317</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5279,14 +5285,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5295,7 +5301,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5312,11 +5318,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5328,14 +5334,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5345,14 +5351,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5361,14 +5367,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>327</v>
+        <v>54</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5378,14 +5384,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>128</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5394,14 +5400,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>84</v>
+        <v>329</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5415,10 +5421,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>331</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5427,14 +5433,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5444,11 +5450,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>30</v>
@@ -5460,14 +5466,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5477,14 +5483,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5493,14 +5499,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5510,14 +5516,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5526,14 +5532,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>342</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5543,14 +5549,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>95</v>
+        <v>341</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5559,14 +5565,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>50</v>
+        <v>344</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5576,14 +5582,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5592,14 +5598,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5609,14 +5615,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>133</v>
+        <v>347</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
         <v>348</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5632,7 +5638,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5642,14 +5648,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5658,14 +5664,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5675,14 +5681,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5691,14 +5697,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>62</v>
+        <v>298</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5708,14 +5714,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5731,7 +5737,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>354</v>
+        <v>62</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5741,14 +5747,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>342</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5757,14 +5763,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>54</v>
+        <v>356</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5774,14 +5780,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>228</v>
+        <v>357</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
         <v>358</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5797,7 +5803,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5807,14 +5813,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>333</v>
+        <v>230</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5823,31 +5829,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>361</v>
+        <v>62</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5856,14 +5862,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>363</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5873,14 +5879,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5896,7 +5902,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>367</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5906,14 +5912,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5922,14 +5928,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>16</v>
+        <v>369</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5939,7 +5945,7 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>108</v>
+        <v>370</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
@@ -5972,11 +5978,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>373</v>
+        <v>108</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>103</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5995,7 +6001,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>375</v>
+        <v>16</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -6005,11 +6011,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>133</v>
+        <v>375</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>348</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -6028,7 +6034,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>16</v>
+        <v>377</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6038,11 +6044,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>362</v>
+        <v>133</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6054,14 +6060,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6071,14 +6077,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6104,14 +6110,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>380</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6137,14 +6143,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>32</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6153,7 +6159,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6170,14 +6176,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>273</v>
+        <v>384</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>274</v>
+        <v>385</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6186,14 +6192,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>361</v>
+        <v>12</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6203,11 +6209,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>373</v>
+        <v>275</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6219,14 +6225,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6236,11 +6242,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6259,7 +6265,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>296</v>
+        <v>389</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6269,11 +6275,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>319</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6285,14 +6291,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6302,11 +6308,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>21</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6318,14 +6324,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>391</v>
+        <v>12</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6358,7 +6364,7 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6368,11 +6374,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>368</v>
+        <v>20</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>369</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6384,14 +6390,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6401,49 +6407,82 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
+        <v>371</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>395</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>16</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>13</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>396</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
         <v>151</v>
       </c>
-      <c t="s" r="Q145" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" ht="25.5" customHeight="1">
-      <c r="P146" s="13">
-        <v>8476.9750000000004</v>
-      </c>
-      <c r="Q146" s="13"/>
-    </row>
-    <row r="147" ht="16.5" customHeight="1">
-      <c t="s" r="A147" s="14">
-        <v>395</v>
-      </c>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c t="s" r="G147" s="15">
-        <v>396</v>
-      </c>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="16"/>
-      <c t="s" r="K147" s="17">
+      <c t="s" r="Q146" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="P147" s="13">
+        <v>8516.5750000000007</v>
+      </c>
+      <c r="Q147" s="13"/>
+    </row>
+    <row r="148" ht="16.5" customHeight="1">
+      <c t="s" r="A148" s="14">
         <v>397</v>
       </c>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17"/>
-      <c r="O147" s="17"/>
-      <c r="P147" s="17"/>
-      <c r="Q147" s="17"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c t="s" r="G148" s="15">
+        <v>398</v>
+      </c>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="16"/>
+      <c t="s" r="K148" s="17">
+        <v>399</v>
+      </c>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="17"/>
+      <c r="Q148" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="707">
+  <mergeCells count="712">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7147,10 +7186,15 @@
     <mergeCell ref="H145:K145"/>
     <mergeCell ref="L145:M145"/>
     <mergeCell ref="N145:O145"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="K147:Q147"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="K148:Q148"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -1202,7 +1202,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:36 PM</t>
+    <t>Thursday, 7 August, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -1202,7 +1202,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:38 PM</t>
+    <t>Thursday, 7 August, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -260,6 +260,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -737,6 +746,15 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
     <t>LINEZ 600MG 10 F.C.TAB.</t>
   </si>
   <si>
@@ -1202,7 +1220,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:43 PM</t>
+    <t>Thursday, 7 August, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2470,17 +2488,17 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2503,17 +2521,17 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2536,7 +2554,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2546,11 +2564,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>30</v>
@@ -2562,14 +2580,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2579,14 +2597,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2595,14 +2613,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2612,14 +2630,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2645,14 +2663,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2685,7 +2703,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2701,7 +2719,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2734,7 +2752,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2767,7 +2785,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2800,7 +2818,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2810,14 +2828,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2826,14 +2844,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2850,7 +2868,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2866,7 +2884,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2883,7 +2901,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2899,7 +2917,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2932,7 +2950,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2965,7 +2983,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2975,14 +2993,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -3008,14 +3026,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -3024,14 +3042,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3041,14 +3059,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3064,7 +3082,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3078,10 +3096,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3090,14 +3108,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3107,11 +3125,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3144,10 +3162,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3156,28 +3174,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -3196,13 +3214,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3229,7 +3247,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3246,7 +3264,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3262,13 +3280,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3295,13 +3313,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3328,7 +3346,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3361,7 +3379,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3394,7 +3412,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3427,7 +3445,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3437,11 +3455,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3453,14 +3471,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3470,11 +3488,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3503,14 +3521,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3519,14 +3537,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3536,11 +3554,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>30</v>
@@ -3552,14 +3570,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3569,14 +3587,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3592,7 +3610,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3602,14 +3620,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3618,14 +3636,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3635,7 +3653,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3658,7 +3676,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3672,10 +3690,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3684,14 +3702,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3705,10 +3723,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3717,14 +3735,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3734,14 +3752,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>90</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3750,14 +3768,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3767,14 +3785,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3790,7 +3808,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3807,7 +3825,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3823,7 +3841,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3840,7 +3858,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3856,7 +3874,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3873,7 +3891,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3889,7 +3907,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3899,14 +3917,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3915,14 +3933,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3939,7 +3957,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3955,7 +3973,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3988,7 +4006,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -4021,7 +4039,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4035,10 +4053,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4047,14 +4065,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4064,11 +4082,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -4080,28 +4098,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4113,14 +4131,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4130,11 +4148,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4153,7 +4171,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4163,14 +4181,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4179,28 +4197,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -4212,14 +4230,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4229,14 +4247,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4245,28 +4263,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4285,13 +4303,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4302,7 +4320,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4318,7 +4336,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4335,7 +4353,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4351,7 +4369,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4361,14 +4379,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4377,14 +4395,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4394,14 +4412,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4417,13 +4435,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4434,7 +4452,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4483,13 +4501,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4500,7 +4518,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4516,7 +4534,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4533,7 +4551,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4549,7 +4567,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4566,7 +4584,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4582,7 +4600,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4592,14 +4610,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4608,14 +4626,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4625,14 +4643,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4641,14 +4659,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4658,14 +4676,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4681,7 +4699,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4698,7 +4716,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4714,7 +4732,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>62</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4724,7 +4742,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>142</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4780,7 +4798,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4790,14 +4808,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4823,14 +4841,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4839,14 +4857,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4856,14 +4874,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4872,14 +4890,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4889,14 +4907,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4905,14 +4923,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4922,11 +4940,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>156</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>30</v>
@@ -4945,7 +4963,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4955,11 +4973,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>62</v>
@@ -4971,14 +4989,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4988,14 +5006,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -5004,31 +5022,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>169</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5037,14 +5055,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5054,14 +5072,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5070,31 +5088,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>192</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5110,7 +5128,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5120,14 +5138,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5136,20 +5154,20 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -5176,7 +5194,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5193,7 +5211,7 @@
         <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5209,24 +5227,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>153</v>
+        <v>311</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>312</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5242,7 +5260,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5259,7 +5277,7 @@
         <v>315</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5275,7 +5293,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>317</v>
+        <v>74</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5285,14 +5303,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q111" s="12">
         <v>318</v>
-      </c>
-      <c t="s" r="Q111" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5308,7 +5326,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5325,7 +5343,7 @@
         <v>321</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5341,7 +5359,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5351,14 +5369,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>323</v>
+        <v>130</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>324</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5374,7 +5392,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5391,7 +5409,7 @@
         <v>327</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5407,7 +5425,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5417,11 +5435,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>128</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5440,7 +5458,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5473,7 +5491,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5483,14 +5501,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>336</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5506,7 +5524,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5523,7 +5541,7 @@
         <v>339</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5572,7 +5590,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>344</v>
+        <v>87</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5582,14 +5600,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>95</v>
+        <v>344</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
         <v>345</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5605,7 +5623,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5638,7 +5656,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5648,14 +5666,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5664,14 +5682,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5681,11 +5699,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>30</v>
@@ -5697,14 +5715,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5714,11 +5732,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>299</v>
+        <v>136</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5730,14 +5748,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5747,14 +5765,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5763,14 +5781,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5780,14 +5798,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>344</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5803,7 +5821,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5813,14 +5831,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
         <v>360</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5836,7 +5854,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>62</v>
+        <v>362</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5846,14 +5864,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>30</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5862,28 +5880,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>363</v>
+        <v>54</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>364</v>
+        <v>233</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5895,31 +5913,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5968,7 +5986,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5978,14 +5996,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>108</v>
+        <v>373</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -6001,7 +6019,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>16</v>
+        <v>375</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -6011,11 +6029,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>103</v>
+        <v>377</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -6027,14 +6045,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>377</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6044,11 +6062,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6060,7 +6078,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -6077,11 +6095,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>365</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6093,14 +6111,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>12</v>
+        <v>383</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6110,14 +6128,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>380</v>
+        <v>136</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>264</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6126,14 +6144,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6143,14 +6161,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
         <v>371</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>382</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6159,7 +6177,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6176,14 +6194,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>385</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6192,7 +6210,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6209,14 +6227,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>276</v>
+        <v>377</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>16</v>
+        <v>388</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6225,14 +6243,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>363</v>
+        <v>12</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6242,14 +6260,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>103</v>
+        <v>391</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6258,14 +6276,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>389</v>
+        <v>12</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6275,11 +6293,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>21</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6291,14 +6309,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>298</v>
+        <v>369</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6308,11 +6326,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>320</v>
+        <v>381</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>321</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6324,14 +6342,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>12</v>
+        <v>395</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6357,14 +6375,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>393</v>
+        <v>304</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6374,11 +6392,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>21</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6390,7 +6408,7 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
@@ -6407,11 +6425,11 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>370</v>
+        <v>20</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>371</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>16</v>
@@ -6423,14 +6441,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>16</v>
+        <v>399</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6440,49 +6458,115 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>396</v>
+        <v>20</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
-      <c r="P147" s="13">
-        <v>8516.5750000000007</v>
-      </c>
-      <c r="Q147" s="13"/>
-    </row>
-    <row r="148" ht="16.5" customHeight="1">
-      <c t="s" r="A148" s="14">
-        <v>397</v>
-      </c>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c t="s" r="G148" s="15">
-        <v>398</v>
-      </c>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="16"/>
-      <c t="s" r="K148" s="17">
-        <v>399</v>
-      </c>
-      <c r="L148" s="17"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17"/>
-      <c r="O148" s="17"/>
-      <c r="P148" s="17"/>
-      <c r="Q148" s="17"/>
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>400</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>12</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>13</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>376</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
+        <v>377</v>
+      </c>
+      <c t="s" r="Q147" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="A148" s="7">
+        <v>142</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c t="s" r="C148" s="8">
+        <v>401</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
+        <v>16</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c t="s" r="L148" s="10">
+        <v>13</v>
+      </c>
+      <c r="M148" s="10"/>
+      <c t="s" r="N148" s="8">
+        <v>402</v>
+      </c>
+      <c r="O148" s="8"/>
+      <c t="s" r="P148" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q148" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="P149" s="13">
+        <v>8621.7450000000008</v>
+      </c>
+      <c r="Q149" s="13"/>
+    </row>
+    <row r="150" ht="16.5" customHeight="1">
+      <c t="s" r="A150" s="14">
+        <v>403</v>
+      </c>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c t="s" r="G150" s="15">
+        <v>404</v>
+      </c>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="16"/>
+      <c t="s" r="K150" s="17">
+        <v>405</v>
+      </c>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
+      <c r="N150" s="17"/>
+      <c r="O150" s="17"/>
+      <c r="P150" s="17"/>
+      <c r="Q150" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="712">
+  <mergeCells count="722">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7191,10 +7275,20 @@
     <mergeCell ref="H146:K146"/>
     <mergeCell ref="L146:M146"/>
     <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P147:Q147"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="K148:Q148"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="P149:Q149"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="K150:Q150"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-07_00-00.xlsx
+++ b/DaySale_2025-08-07_00-00.xlsx
@@ -413,6 +413,15 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -512,6 +521,15 @@
     <t>214.0000</t>
   </si>
   <si>
+    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>EGYCUSATE 20 MG/5 ML SYRUP 100ML</t>
   </si>
   <si>
@@ -785,12 +803,6 @@
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>MELLITOFIX 10MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -863,12 +875,6 @@
     <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>OCTOVENT 4MG C.R. 20 TAB</t>
   </si>
   <si>
@@ -1220,7 +1226,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Thursday, 7 August, 2025 9:45 PM</t>
+    <t>Thursday, 7 August, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3049,21 +3055,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -3075,14 +3081,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3092,14 +3098,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3115,7 +3121,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3129,10 +3135,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3141,14 +3147,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3158,11 +3164,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3174,14 +3180,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3195,10 +3201,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3207,28 +3213,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -3253,7 +3259,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3280,7 +3286,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3297,7 +3303,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3313,13 +3319,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3346,13 +3352,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3379,7 +3385,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3412,7 +3418,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3478,7 +3484,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3488,11 +3494,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3504,7 +3510,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3521,11 +3527,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3570,14 +3576,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3587,14 +3593,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3603,14 +3609,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3620,14 +3626,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3636,14 +3642,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3653,11 +3659,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>30</v>
@@ -3669,14 +3675,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3686,14 +3692,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3702,14 +3708,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3719,14 +3725,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3735,14 +3741,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3759,7 +3765,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>194</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3768,14 +3774,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3785,14 +3791,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3801,14 +3807,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3825,7 +3831,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3834,14 +3840,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3851,14 +3857,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3874,7 +3880,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3907,7 +3913,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3940,7 +3946,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3950,14 +3956,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3966,14 +3972,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3983,11 +3989,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>30</v>
@@ -3999,14 +4005,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -4023,7 +4029,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -4072,7 +4078,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4086,10 +4092,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4098,14 +4104,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4115,14 +4121,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4131,7 +4137,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4144,15 +4150,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4164,28 +4170,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4197,14 +4203,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4214,14 +4220,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4230,31 +4236,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4263,31 +4269,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4296,31 +4302,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4329,14 +4335,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4346,14 +4352,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4369,13 +4375,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4402,7 +4408,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4412,11 +4418,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>30</v>
@@ -4428,14 +4434,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4445,14 +4451,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4461,14 +4467,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4478,14 +4484,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4501,13 +4507,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4518,7 +4524,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" custom